--- a/Schedule Calculator Pro/bin/Debug/Розклад 3 курс.xlsx
+++ b/Schedule Calculator Pro/bin/Debug/Розклад 3 курс.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\SCP\Schedule Calculator Pro\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B13BA87D-EE1B-49D6-BDA5-A5CDED27A1EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{328B53C0-03F0-4AC8-A82F-E58F97359F09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="1980" windowWidth="21600" windowHeight="11505" xr2:uid="{38B5A381-59F4-496C-ACF2-E3F6A08B37F3}"/>
+    <workbookView xWindow="2235" yWindow="2625" windowWidth="13995" windowHeight="11505" xr2:uid="{44833D93-5865-4618-B2CD-FC381B499FF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="102">
   <si>
     <t>А30</t>
   </si>
@@ -42,13 +42,31 @@
     <t>Бондаренко О.П.</t>
   </si>
   <si>
+    <t>Теорія автоматичного регулювання та авт. рег.</t>
+  </si>
+  <si>
+    <t>Конишев В.С.</t>
+  </si>
+  <si>
+    <t>Фізична культура</t>
+  </si>
+  <si>
+    <t>Пузіна О.С.</t>
+  </si>
+  <si>
     <t>с.з.</t>
   </si>
   <si>
-    <t>Теорія автоматичного регулювання та авт. рег.</t>
-  </si>
-  <si>
-    <t>Конишев В.С.</t>
+    <t>Електроніка і схемотехніка</t>
+  </si>
+  <si>
+    <t>Кузьомко В.І.</t>
+  </si>
+  <si>
+    <t>Основи метрології і засоби технічного контролю</t>
+  </si>
+  <si>
+    <t>Автоматизований електропривод</t>
   </si>
   <si>
     <t>Іноземна мова (за проф. спрямуванням)</t>
@@ -57,24 +75,6 @@
     <t>Семенюк Л.М.</t>
   </si>
   <si>
-    <t>Фізична культура</t>
-  </si>
-  <si>
-    <t>Пузіна О.С.</t>
-  </si>
-  <si>
-    <t>Електроніка і схемотехніка</t>
-  </si>
-  <si>
-    <t>Кузьомко В.І.</t>
-  </si>
-  <si>
-    <t>Основи метрології і засоби технічного контролю</t>
-  </si>
-  <si>
-    <t>Автоматизований електропривод</t>
-  </si>
-  <si>
     <t>Охорона праці в галузі</t>
   </si>
   <si>
@@ -147,13 +147,13 @@
     <t>Романішин В.В.</t>
   </si>
   <si>
+    <t>Операційні системи</t>
+  </si>
+  <si>
     <t>Вища математика</t>
   </si>
   <si>
     <t>Сербин Г.Л.</t>
-  </si>
-  <si>
-    <t>Операційні системи</t>
   </si>
   <si>
     <t>Іноземна мова</t>
@@ -572,7 +572,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -622,6 +622,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -940,7 +943,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C8E8628-9C97-495C-9CD2-794C3346E37E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{937477F0-58D6-4AB4-9DFE-17F0B9D80299}">
   <dimension ref="A1:BP50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -972,7 +975,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:68" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>96</v>
       </c>
       <c r="B1" s="1"/>
@@ -1091,14 +1094,14 @@
       <c r="C3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>3</v>
+      <c r="D3" s="11">
+        <v>308</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G3" s="11">
         <v>117</v>
@@ -1110,7 +1113,7 @@
         <v>30</v>
       </c>
       <c r="J3" s="11">
-        <v>217</v>
+        <v>717</v>
       </c>
       <c r="K3" s="11" t="s">
         <v>50</v>
@@ -1198,10 +1201,10 @@
     <row r="4" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>4</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>5</v>
       </c>
       <c r="D4" s="13">
         <v>117</v>
@@ -1213,7 +1216,7 @@
         <v>21</v>
       </c>
       <c r="G4" s="13">
-        <v>210</v>
+        <v>319</v>
       </c>
       <c r="H4" s="13" t="s">
         <v>14</v>
@@ -1222,16 +1225,16 @@
         <v>31</v>
       </c>
       <c r="J4" s="13">
-        <v>112</v>
+        <v>301</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L4" s="13" t="s">
         <v>32</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N4" s="13" t="s">
         <v>65</v>
@@ -1249,7 +1252,7 @@
         <v>76</v>
       </c>
       <c r="S4" s="13">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="T4" s="13" t="s">
         <v>88</v>
@@ -1310,31 +1313,31 @@
     <row r="5" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="D5" s="13">
+        <v>215</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="13">
+        <v>305</v>
+      </c>
+      <c r="H5" s="13" t="s">
         <v>5</v>
-      </c>
-      <c r="D5" s="13">
-        <v>117</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="13">
-        <v>319</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>8</v>
       </c>
       <c r="I5" s="13" t="s">
         <v>32</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K5" s="13" t="s">
         <v>52</v>
@@ -1352,7 +1355,7 @@
         <v>34</v>
       </c>
       <c r="P5" s="13">
-        <v>123</v>
+        <v>306</v>
       </c>
       <c r="Q5" s="13" t="s">
         <v>77</v>
@@ -1500,10 +1503,10 @@
         <v>98</v>
       </c>
       <c r="B7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>4</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>5</v>
       </c>
       <c r="D7" s="11">
         <v>117</v>
@@ -1515,16 +1518,16 @@
         <v>23</v>
       </c>
       <c r="G7" s="11">
-        <v>209</v>
+        <v>404</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I7" s="11" t="s">
         <v>32</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K7" s="11" t="s">
         <v>54</v>
@@ -1542,7 +1545,7 @@
         <v>68</v>
       </c>
       <c r="P7" s="11">
-        <v>413</v>
+        <v>209</v>
       </c>
       <c r="Q7" s="11" t="s">
         <v>78</v>
@@ -1551,7 +1554,7 @@
         <v>79</v>
       </c>
       <c r="S7" s="11">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="T7" s="11" t="s">
         <v>90</v>
@@ -1560,7 +1563,7 @@
         <v>89</v>
       </c>
       <c r="V7" s="12">
-        <v>410</v>
+        <v>213</v>
       </c>
       <c r="W7" s="10"/>
       <c r="X7" s="10"/>
@@ -1612,22 +1615,22 @@
     <row r="8" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="D8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="13">
-        <v>112</v>
-      </c>
       <c r="E8" s="13" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="G8" s="13">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>33</v>
@@ -1636,7 +1639,7 @@
         <v>34</v>
       </c>
       <c r="J8" s="13">
-        <v>306</v>
+        <v>201</v>
       </c>
       <c r="K8" s="13" t="s">
         <v>56</v>
@@ -1724,13 +1727,13 @@
     <row r="9" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="15" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>24</v>
@@ -1739,7 +1742,7 @@
         <v>25</v>
       </c>
       <c r="G9" s="15">
-        <v>204</v>
+        <v>153</v>
       </c>
       <c r="H9" s="15" t="s">
         <v>35</v>
@@ -1748,7 +1751,7 @@
         <v>34</v>
       </c>
       <c r="J9" s="15">
-        <v>304</v>
+        <v>403</v>
       </c>
       <c r="K9" s="15" t="s">
         <v>56</v>
@@ -1784,7 +1787,7 @@
         <v>89</v>
       </c>
       <c r="V9" s="16">
-        <v>410</v>
+        <v>317</v>
       </c>
       <c r="W9" s="10"/>
       <c r="X9" s="10"/>
@@ -1838,10 +1841,10 @@
         <v>99</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D10" s="11">
         <v>311</v>
@@ -1853,7 +1856,7 @@
         <v>25</v>
       </c>
       <c r="G10" s="11">
-        <v>405</v>
+        <v>106</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>36</v>
@@ -1862,7 +1865,7 @@
         <v>37</v>
       </c>
       <c r="J10" s="11">
-        <v>317</v>
+        <v>217</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>56</v>
@@ -1950,31 +1953,31 @@
     <row r="11" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D11" s="13">
-        <v>204</v>
+        <v>311</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G11" s="13">
-        <v>322</v>
+        <v>117</v>
       </c>
       <c r="H11" s="13" t="s">
         <v>38</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J11" s="13">
-        <v>303</v>
+        <v>206</v>
       </c>
       <c r="K11" s="13" t="s">
         <v>58</v>
@@ -1986,13 +1989,13 @@
         <v>412</v>
       </c>
       <c r="N11" s="13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O11" s="13" t="s">
         <v>32</v>
       </c>
       <c r="P11" s="13" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q11" s="13" t="s">
         <v>83</v>
@@ -2062,40 +2065,40 @@
     <row r="12" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D12" s="13">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F12" s="13" t="s">
         <v>26</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="I12" s="13" t="s">
-        <v>37</v>
-      </c>
       <c r="J12" s="13">
-        <v>321</v>
+        <v>404</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L12" s="13" t="s">
         <v>32</v>
       </c>
       <c r="M12" s="13" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N12" s="13" t="s">
         <v>44</v>
@@ -2252,31 +2255,31 @@
         <v>100</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D14" s="11">
-        <v>318</v>
+        <v>211</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>26</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I14" s="11" t="s">
         <v>37</v>
       </c>
       <c r="J14" s="11">
-        <v>203</v>
+        <v>314</v>
       </c>
       <c r="K14" s="11" t="s">
         <v>52</v>
@@ -2288,19 +2291,19 @@
         <v>412</v>
       </c>
       <c r="N14" s="11" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="O14" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="P14" s="11" t="s">
-        <v>3</v>
+        <v>17</v>
+      </c>
+      <c r="P14" s="11">
+        <v>413</v>
       </c>
       <c r="Q14" s="11" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="S14" s="11">
         <v>301</v>
@@ -2364,31 +2367,31 @@
     <row r="15" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="13">
+        <v>305</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="13">
-        <v>203</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>7</v>
-      </c>
       <c r="G15" s="13">
-        <v>317</v>
+        <v>151</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J15" s="13">
-        <v>218</v>
+        <v>122</v>
       </c>
       <c r="K15" s="13" t="s">
         <v>60</v>
@@ -2400,31 +2403,31 @@
         <v>412</v>
       </c>
       <c r="N15" s="13" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="O15" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="P15" s="13">
-        <v>413</v>
+        <v>32</v>
+      </c>
+      <c r="P15" s="13" t="s">
+        <v>7</v>
       </c>
       <c r="Q15" s="13" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="R15" s="13" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="S15" s="13">
         <v>301</v>
       </c>
       <c r="T15" s="13" t="s">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="U15" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="V15" s="14" t="s">
-        <v>3</v>
+        <v>89</v>
+      </c>
+      <c r="V15" s="14">
+        <v>410</v>
       </c>
       <c r="W15" s="10"/>
       <c r="X15" s="10"/>
@@ -2476,22 +2479,22 @@
     <row r="16" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D16" s="13">
-        <v>211</v>
+        <v>111</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>27</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G16" s="13">
-        <v>717</v>
+        <v>211</v>
       </c>
       <c r="H16" s="17" t="s">
         <v>41</v>
@@ -2500,7 +2503,7 @@
         <v>42</v>
       </c>
       <c r="J16" s="13">
-        <v>209</v>
+        <v>306</v>
       </c>
       <c r="K16" s="13" t="s">
         <v>62</v>
@@ -2518,19 +2521,25 @@
         <v>48</v>
       </c>
       <c r="P16" s="13">
-        <v>153</v>
-      </c>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
+        <v>413</v>
+      </c>
+      <c r="Q16" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="R16" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="S16" s="13">
+        <v>301</v>
+      </c>
       <c r="T16" s="13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="U16" s="13" t="s">
         <v>32</v>
       </c>
       <c r="V16" s="14" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="W16" s="10"/>
       <c r="X16" s="10"/>
@@ -2592,7 +2601,7 @@
         <v>43</v>
       </c>
       <c r="J17" s="15">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
@@ -2658,22 +2667,22 @@
         <v>101</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="D18" s="11">
+        <v>305</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>27</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G18" s="11">
-        <v>318</v>
+        <v>104</v>
       </c>
       <c r="H18" s="11" t="s">
         <v>44</v>
@@ -2682,25 +2691,31 @@
         <v>45</v>
       </c>
       <c r="J18" s="11">
-        <v>215</v>
+        <v>106</v>
       </c>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
       <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
+      <c r="N18" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="O18" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="P18" s="11">
+        <v>413</v>
+      </c>
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
       <c r="S18" s="11"/>
       <c r="T18" s="11" t="s">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="U18" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="V18" s="12">
-        <v>410</v>
+        <v>32</v>
+      </c>
+      <c r="V18" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="W18" s="10"/>
       <c r="X18" s="10"/>
@@ -2751,45 +2766,31 @@
     </row>
     <row r="19" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
-      <c r="B19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="13">
-        <v>104</v>
-      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
-      <c r="H19" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J19" s="13">
-        <v>305</v>
-      </c>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
       <c r="K19" s="13"/>
       <c r="L19" s="13"/>
       <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="P19" s="13">
+        <v>201</v>
+      </c>
       <c r="Q19" s="13"/>
       <c r="R19" s="13"/>
       <c r="S19" s="13"/>
-      <c r="T19" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="U19" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="V19" s="14">
-        <v>410</v>
-      </c>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="14"/>
       <c r="W19" s="10"/>
       <c r="X19" s="10"/>
       <c r="Y19" s="10"/>
@@ -2837,47 +2838,47 @@
       <c r="BO19" s="10"/>
       <c r="BP19" s="10"/>
     </row>
-    <row r="20" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="15" t="s">
+    <row r="20" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="13">
         <v>104</v>
       </c>
-      <c r="E20" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="15">
-        <v>321</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="J20" s="15">
-        <v>404</v>
-      </c>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="15"/>
-      <c r="V20" s="16"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J20" s="13">
+        <v>109</v>
+      </c>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="U20" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="V20" s="14">
+        <v>410</v>
+      </c>
       <c r="W20" s="10"/>
       <c r="X20" s="10"/>
       <c r="Y20" s="10"/>
@@ -2925,29 +2926,41 @@
       <c r="BO20" s="10"/>
       <c r="BP20" s="10"/>
     </row>
-    <row r="21" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="10"/>
-      <c r="V21" s="10"/>
+    <row r="21" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6"/>
+      <c r="B21" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="15">
+        <v>104</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="J21" s="15">
+        <v>409</v>
+      </c>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="16"/>
       <c r="W21" s="10"/>
       <c r="X21" s="10"/>
       <c r="Y21" s="10"/>
@@ -5003,15 +5016,16 @@
       <c r="BP50" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A20"/>
+  <mergeCells count="15">
+    <mergeCell ref="N18:N19"/>
     <mergeCell ref="Q2:S2"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:J2"/>
@@ -5020,6 +5034,6 @@
     <mergeCell ref="N2:P2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Schedule Calculator Pro/bin/Debug/Розклад 3 курс.xlsx
+++ b/Schedule Calculator Pro/bin/Debug/Розклад 3 курс.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\SCP\Schedule Calculator Pro\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{328B53C0-03F0-4AC8-A82F-E58F97359F09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB49C558-2F00-426A-BDFB-A03881FCD0C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2235" yWindow="2625" windowWidth="13995" windowHeight="11505" xr2:uid="{44833D93-5865-4618-B2CD-FC381B499FF8}"/>
+    <workbookView xWindow="8100" yWindow="450" windowWidth="13995" windowHeight="11505" xr2:uid="{01259847-4B64-4D8D-86FF-01DE645CA1F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="102">
   <si>
     <t>А30</t>
   </si>
@@ -943,7 +943,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{937477F0-58D6-4AB4-9DFE-17F0B9D80299}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B98709-73DF-47F8-AA63-0D2AAA7AE799}">
   <dimension ref="A1:BP50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1095,7 +1095,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="11">
-        <v>308</v>
+        <v>217</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>19</v>
@@ -1113,7 +1113,7 @@
         <v>30</v>
       </c>
       <c r="J3" s="11">
-        <v>717</v>
+        <v>152</v>
       </c>
       <c r="K3" s="11" t="s">
         <v>50</v>
@@ -1140,7 +1140,7 @@
         <v>74</v>
       </c>
       <c r="S3" s="11">
-        <v>301</v>
+        <v>404</v>
       </c>
       <c r="T3" s="11" t="s">
         <v>60</v>
@@ -1216,7 +1216,7 @@
         <v>21</v>
       </c>
       <c r="G4" s="13">
-        <v>319</v>
+        <v>203</v>
       </c>
       <c r="H4" s="13" t="s">
         <v>14</v>
@@ -1225,7 +1225,7 @@
         <v>31</v>
       </c>
       <c r="J4" s="13">
-        <v>301</v>
+        <v>403</v>
       </c>
       <c r="K4" s="13" t="s">
         <v>5</v>
@@ -1252,7 +1252,7 @@
         <v>76</v>
       </c>
       <c r="S4" s="13">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="T4" s="13" t="s">
         <v>88</v>
@@ -1261,7 +1261,7 @@
         <v>89</v>
       </c>
       <c r="V4" s="14">
-        <v>410</v>
+        <v>200</v>
       </c>
       <c r="W4" s="10"/>
       <c r="X4" s="10"/>
@@ -1319,7 +1319,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="13">
-        <v>215</v>
+        <v>117</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>22</v>
@@ -1328,7 +1328,7 @@
         <v>23</v>
       </c>
       <c r="G5" s="13">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H5" s="13" t="s">
         <v>5</v>
@@ -1346,7 +1346,7 @@
         <v>53</v>
       </c>
       <c r="M5" s="13">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="N5" s="13" t="s">
         <v>33</v>
@@ -1355,7 +1355,7 @@
         <v>34</v>
       </c>
       <c r="P5" s="13">
-        <v>306</v>
+        <v>413</v>
       </c>
       <c r="Q5" s="13" t="s">
         <v>77</v>
@@ -1518,7 +1518,7 @@
         <v>23</v>
       </c>
       <c r="G7" s="11">
-        <v>404</v>
+        <v>215</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>5</v>
@@ -1545,7 +1545,7 @@
         <v>68</v>
       </c>
       <c r="P7" s="11">
-        <v>209</v>
+        <v>413</v>
       </c>
       <c r="Q7" s="11" t="s">
         <v>78</v>
@@ -1554,7 +1554,7 @@
         <v>79</v>
       </c>
       <c r="S7" s="11">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="T7" s="11" t="s">
         <v>90</v>
@@ -1563,7 +1563,7 @@
         <v>89</v>
       </c>
       <c r="V7" s="12">
-        <v>213</v>
+        <v>410</v>
       </c>
       <c r="W7" s="10"/>
       <c r="X7" s="10"/>
@@ -1630,7 +1630,7 @@
         <v>2</v>
       </c>
       <c r="G8" s="13">
-        <v>208</v>
+        <v>410</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>33</v>
@@ -1639,7 +1639,7 @@
         <v>34</v>
       </c>
       <c r="J8" s="13">
-        <v>201</v>
+        <v>322</v>
       </c>
       <c r="K8" s="13" t="s">
         <v>56</v>
@@ -1675,7 +1675,7 @@
         <v>51</v>
       </c>
       <c r="V8" s="14">
-        <v>410</v>
+        <v>305</v>
       </c>
       <c r="W8" s="10"/>
       <c r="X8" s="10"/>
@@ -1742,7 +1742,7 @@
         <v>25</v>
       </c>
       <c r="G9" s="15">
-        <v>153</v>
+        <v>202</v>
       </c>
       <c r="H9" s="15" t="s">
         <v>35</v>
@@ -1751,7 +1751,7 @@
         <v>34</v>
       </c>
       <c r="J9" s="15">
-        <v>403</v>
+        <v>213</v>
       </c>
       <c r="K9" s="15" t="s">
         <v>56</v>
@@ -1760,7 +1760,7 @@
         <v>57</v>
       </c>
       <c r="M9" s="15">
-        <v>412</v>
+        <v>319</v>
       </c>
       <c r="N9" s="15" t="s">
         <v>16</v>
@@ -1787,7 +1787,7 @@
         <v>89</v>
       </c>
       <c r="V9" s="16">
-        <v>317</v>
+        <v>410</v>
       </c>
       <c r="W9" s="10"/>
       <c r="X9" s="10"/>
@@ -1855,8 +1855,8 @@
       <c r="F10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="11">
-        <v>106</v>
+      <c r="G10" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>36</v>
@@ -1865,7 +1865,7 @@
         <v>37</v>
       </c>
       <c r="J10" s="11">
-        <v>217</v>
+        <v>151</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>56</v>
@@ -1901,7 +1901,7 @@
         <v>89</v>
       </c>
       <c r="V10" s="12">
-        <v>410</v>
+        <v>217</v>
       </c>
       <c r="W10" s="10"/>
       <c r="X10" s="10"/>
@@ -1968,7 +1968,7 @@
         <v>4</v>
       </c>
       <c r="G11" s="13">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="H11" s="13" t="s">
         <v>38</v>
@@ -1977,7 +1977,7 @@
         <v>37</v>
       </c>
       <c r="J11" s="13">
-        <v>206</v>
+        <v>303</v>
       </c>
       <c r="K11" s="13" t="s">
         <v>58</v>
@@ -2071,7 +2071,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="13">
-        <v>308</v>
+        <v>215</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>5</v>
@@ -2089,7 +2089,7 @@
         <v>40</v>
       </c>
       <c r="J12" s="13">
-        <v>404</v>
+        <v>152</v>
       </c>
       <c r="K12" s="13" t="s">
         <v>5</v>
@@ -2261,7 +2261,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="11">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>5</v>
@@ -2279,7 +2279,7 @@
         <v>37</v>
       </c>
       <c r="J14" s="11">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="K14" s="11" t="s">
         <v>52</v>
@@ -2373,7 +2373,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="13">
-        <v>305</v>
+        <v>217</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>12</v>
@@ -2382,7 +2382,7 @@
         <v>13</v>
       </c>
       <c r="G15" s="13">
-        <v>151</v>
+        <v>219</v>
       </c>
       <c r="H15" s="13" t="s">
         <v>39</v>
@@ -2391,7 +2391,7 @@
         <v>40</v>
       </c>
       <c r="J15" s="13">
-        <v>122</v>
+        <v>403</v>
       </c>
       <c r="K15" s="13" t="s">
         <v>60</v>
@@ -2485,7 +2485,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="13">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>27</v>
@@ -2494,7 +2494,7 @@
         <v>9</v>
       </c>
       <c r="G16" s="13">
-        <v>211</v>
+        <v>319</v>
       </c>
       <c r="H16" s="17" t="s">
         <v>41</v>
@@ -2503,7 +2503,7 @@
         <v>42</v>
       </c>
       <c r="J16" s="13">
-        <v>306</v>
+        <v>416</v>
       </c>
       <c r="K16" s="13" t="s">
         <v>62</v>
@@ -2601,7 +2601,7 @@
         <v>43</v>
       </c>
       <c r="J17" s="15">
-        <v>209</v>
+        <v>318</v>
       </c>
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
@@ -2673,7 +2673,7 @@
         <v>15</v>
       </c>
       <c r="D18" s="11">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>27</v>
@@ -2691,7 +2691,7 @@
         <v>45</v>
       </c>
       <c r="J18" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
@@ -2783,7 +2783,7 @@
         <v>43</v>
       </c>
       <c r="P19" s="13">
-        <v>201</v>
+        <v>314</v>
       </c>
       <c r="Q19" s="13"/>
       <c r="R19" s="13"/>
@@ -2859,7 +2859,7 @@
         <v>9</v>
       </c>
       <c r="J20" s="13">
-        <v>109</v>
+        <v>153</v>
       </c>
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
@@ -2947,7 +2947,7 @@
         <v>48</v>
       </c>
       <c r="J21" s="15">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>

--- a/Schedule Calculator Pro/bin/Debug/Розклад 3 курс.xlsx
+++ b/Schedule Calculator Pro/bin/Debug/Розклад 3 курс.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\SCP\Schedule Calculator Pro\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB49C558-2F00-426A-BDFB-A03881FCD0C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE40B8B5-085D-4AA2-B788-A0967D0FDD27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="450" windowWidth="13995" windowHeight="11505" xr2:uid="{01259847-4B64-4D8D-86FF-01DE645CA1F2}"/>
+    <workbookView xWindow="8100" yWindow="450" windowWidth="13995" windowHeight="11505" xr2:uid="{EB8360B2-C57D-4EAD-B425-2A5CCAAB0684}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="102">
   <si>
     <t>А30</t>
   </si>
@@ -943,7 +943,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B98709-73DF-47F8-AA63-0D2AAA7AE799}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{433BD189-D9CB-4554-9B71-4AB23C323411}">
   <dimension ref="A1:BP50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1095,7 +1095,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="11">
-        <v>217</v>
+        <v>319</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>19</v>
@@ -1140,7 +1140,7 @@
         <v>74</v>
       </c>
       <c r="S3" s="11">
-        <v>404</v>
+        <v>218</v>
       </c>
       <c r="T3" s="11" t="s">
         <v>60</v>
@@ -1216,7 +1216,7 @@
         <v>21</v>
       </c>
       <c r="G4" s="13">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H4" s="13" t="s">
         <v>14</v>
@@ -1225,7 +1225,7 @@
         <v>31</v>
       </c>
       <c r="J4" s="13">
-        <v>403</v>
+        <v>215</v>
       </c>
       <c r="K4" s="13" t="s">
         <v>5</v>
@@ -1261,7 +1261,7 @@
         <v>89</v>
       </c>
       <c r="V4" s="14">
-        <v>200</v>
+        <v>410</v>
       </c>
       <c r="W4" s="10"/>
       <c r="X4" s="10"/>
@@ -1328,7 +1328,7 @@
         <v>23</v>
       </c>
       <c r="G5" s="13">
-        <v>303</v>
+        <v>219</v>
       </c>
       <c r="H5" s="13" t="s">
         <v>5</v>
@@ -1346,7 +1346,7 @@
         <v>53</v>
       </c>
       <c r="M5" s="13">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="N5" s="13" t="s">
         <v>33</v>
@@ -1355,7 +1355,7 @@
         <v>34</v>
       </c>
       <c r="P5" s="13">
-        <v>413</v>
+        <v>216</v>
       </c>
       <c r="Q5" s="13" t="s">
         <v>77</v>
@@ -1373,7 +1373,7 @@
         <v>89</v>
       </c>
       <c r="V5" s="14">
-        <v>410</v>
+        <v>322</v>
       </c>
       <c r="W5" s="10"/>
       <c r="X5" s="10"/>
@@ -1518,7 +1518,7 @@
         <v>23</v>
       </c>
       <c r="G7" s="11">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>5</v>
@@ -1563,7 +1563,7 @@
         <v>89</v>
       </c>
       <c r="V7" s="12">
-        <v>410</v>
+        <v>206</v>
       </c>
       <c r="W7" s="10"/>
       <c r="X7" s="10"/>
@@ -1630,7 +1630,7 @@
         <v>2</v>
       </c>
       <c r="G8" s="13">
-        <v>410</v>
+        <v>322</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>33</v>
@@ -1639,7 +1639,7 @@
         <v>34</v>
       </c>
       <c r="J8" s="13">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="K8" s="13" t="s">
         <v>56</v>
@@ -1675,7 +1675,7 @@
         <v>51</v>
       </c>
       <c r="V8" s="14">
-        <v>305</v>
+        <v>410</v>
       </c>
       <c r="W8" s="10"/>
       <c r="X8" s="10"/>
@@ -1742,7 +1742,7 @@
         <v>25</v>
       </c>
       <c r="G9" s="15">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="H9" s="15" t="s">
         <v>35</v>
@@ -1751,7 +1751,7 @@
         <v>34</v>
       </c>
       <c r="J9" s="15">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="K9" s="15" t="s">
         <v>56</v>
@@ -1760,7 +1760,7 @@
         <v>57</v>
       </c>
       <c r="M9" s="15">
-        <v>319</v>
+        <v>412</v>
       </c>
       <c r="N9" s="15" t="s">
         <v>16</v>
@@ -1778,7 +1778,7 @@
         <v>61</v>
       </c>
       <c r="S9" s="15">
-        <v>301</v>
+        <v>405</v>
       </c>
       <c r="T9" s="15" t="s">
         <v>91</v>
@@ -1787,7 +1787,7 @@
         <v>89</v>
       </c>
       <c r="V9" s="16">
-        <v>410</v>
+        <v>206</v>
       </c>
       <c r="W9" s="10"/>
       <c r="X9" s="10"/>
@@ -1855,8 +1855,8 @@
       <c r="F10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="11" t="s">
-        <v>7</v>
+      <c r="G10" s="11">
+        <v>302</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>36</v>
@@ -1865,7 +1865,7 @@
         <v>37</v>
       </c>
       <c r="J10" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>56</v>
@@ -1892,7 +1892,7 @@
         <v>61</v>
       </c>
       <c r="S10" s="11">
-        <v>301</v>
+        <v>208</v>
       </c>
       <c r="T10" s="11" t="s">
         <v>91</v>
@@ -1901,7 +1901,7 @@
         <v>89</v>
       </c>
       <c r="V10" s="12">
-        <v>217</v>
+        <v>410</v>
       </c>
       <c r="W10" s="10"/>
       <c r="X10" s="10"/>
@@ -1968,7 +1968,7 @@
         <v>4</v>
       </c>
       <c r="G11" s="13">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="H11" s="13" t="s">
         <v>38</v>
@@ -1977,7 +1977,7 @@
         <v>37</v>
       </c>
       <c r="J11" s="13">
-        <v>303</v>
+        <v>211</v>
       </c>
       <c r="K11" s="13" t="s">
         <v>58</v>
@@ -2071,7 +2071,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="13">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>5</v>
@@ -2089,7 +2089,7 @@
         <v>40</v>
       </c>
       <c r="J12" s="13">
-        <v>152</v>
+        <v>314</v>
       </c>
       <c r="K12" s="13" t="s">
         <v>5</v>
@@ -2107,7 +2107,7 @@
         <v>68</v>
       </c>
       <c r="P12" s="13">
-        <v>413</v>
+        <v>310</v>
       </c>
       <c r="Q12" s="13" t="s">
         <v>84</v>
@@ -2261,7 +2261,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="11">
-        <v>206</v>
+        <v>152</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>5</v>
@@ -2279,7 +2279,7 @@
         <v>37</v>
       </c>
       <c r="J14" s="11">
-        <v>322</v>
+        <v>717</v>
       </c>
       <c r="K14" s="11" t="s">
         <v>52</v>
@@ -2373,7 +2373,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="13">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>12</v>
@@ -2382,7 +2382,7 @@
         <v>13</v>
       </c>
       <c r="G15" s="13">
-        <v>219</v>
+        <v>154</v>
       </c>
       <c r="H15" s="13" t="s">
         <v>39</v>
@@ -2391,7 +2391,7 @@
         <v>40</v>
       </c>
       <c r="J15" s="13">
-        <v>403</v>
+        <v>322</v>
       </c>
       <c r="K15" s="13" t="s">
         <v>60</v>
@@ -2485,7 +2485,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="13">
-        <v>108</v>
+        <v>215</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>27</v>
@@ -2494,7 +2494,7 @@
         <v>9</v>
       </c>
       <c r="G16" s="13">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H16" s="17" t="s">
         <v>41</v>
@@ -2601,7 +2601,7 @@
         <v>43</v>
       </c>
       <c r="J17" s="15">
-        <v>318</v>
+        <v>217</v>
       </c>
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
@@ -2673,7 +2673,7 @@
         <v>15</v>
       </c>
       <c r="D18" s="11">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>27</v>
@@ -2682,7 +2682,7 @@
         <v>9</v>
       </c>
       <c r="G18" s="11">
-        <v>104</v>
+        <v>409</v>
       </c>
       <c r="H18" s="11" t="s">
         <v>44</v>
@@ -2691,7 +2691,7 @@
         <v>45</v>
       </c>
       <c r="J18" s="11">
-        <v>105</v>
+        <v>301</v>
       </c>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
@@ -2703,7 +2703,7 @@
         <v>42</v>
       </c>
       <c r="P18" s="11">
-        <v>413</v>
+        <v>209</v>
       </c>
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
@@ -2783,7 +2783,7 @@
         <v>43</v>
       </c>
       <c r="P19" s="13">
-        <v>314</v>
+        <v>219</v>
       </c>
       <c r="Q19" s="13"/>
       <c r="R19" s="13"/>
@@ -2859,7 +2859,7 @@
         <v>9</v>
       </c>
       <c r="J20" s="13">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
@@ -2947,7 +2947,7 @@
         <v>48</v>
       </c>
       <c r="J21" s="15">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>

--- a/Schedule Calculator Pro/bin/Debug/Розклад 3 курс.xlsx
+++ b/Schedule Calculator Pro/bin/Debug/Розклад 3 курс.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\SCP\Schedule Calculator Pro\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE40B8B5-085D-4AA2-B788-A0967D0FDD27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB93DA71-DA86-4118-A1BA-559847ABA3A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="450" windowWidth="13995" windowHeight="11505" xr2:uid="{EB8360B2-C57D-4EAD-B425-2A5CCAAB0684}"/>
+    <workbookView xWindow="8100" yWindow="450" windowWidth="13995" windowHeight="11505" xr2:uid="{31AC94AC-6827-4F13-A126-5C02A924C628}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="102">
   <si>
     <t>А30</t>
   </si>
@@ -943,7 +943,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{433BD189-D9CB-4554-9B71-4AB23C323411}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB8EDF72-55AA-494A-951C-23A9E7B4FF84}">
   <dimension ref="A1:BP50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1095,7 +1095,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="11">
-        <v>319</v>
+        <v>410</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>19</v>
@@ -1113,7 +1113,7 @@
         <v>30</v>
       </c>
       <c r="J3" s="11">
-        <v>152</v>
+        <v>217</v>
       </c>
       <c r="K3" s="11" t="s">
         <v>50</v>
@@ -1122,7 +1122,7 @@
         <v>51</v>
       </c>
       <c r="M3" s="11">
-        <v>412</v>
+        <v>216</v>
       </c>
       <c r="N3" s="11" t="s">
         <v>14</v>
@@ -1140,7 +1140,7 @@
         <v>74</v>
       </c>
       <c r="S3" s="11">
-        <v>218</v>
+        <v>301</v>
       </c>
       <c r="T3" s="11" t="s">
         <v>60</v>
@@ -1149,7 +1149,7 @@
         <v>61</v>
       </c>
       <c r="V3" s="12">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="W3" s="10"/>
       <c r="X3" s="10"/>
@@ -1216,7 +1216,7 @@
         <v>21</v>
       </c>
       <c r="G4" s="13">
-        <v>204</v>
+        <v>152</v>
       </c>
       <c r="H4" s="13" t="s">
         <v>14</v>
@@ -1225,7 +1225,7 @@
         <v>31</v>
       </c>
       <c r="J4" s="13">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="K4" s="13" t="s">
         <v>5</v>
@@ -1243,7 +1243,7 @@
         <v>66</v>
       </c>
       <c r="P4" s="13">
-        <v>413</v>
+        <v>302</v>
       </c>
       <c r="Q4" s="13" t="s">
         <v>75</v>
@@ -1328,7 +1328,7 @@
         <v>23</v>
       </c>
       <c r="G5" s="13">
-        <v>219</v>
+        <v>403</v>
       </c>
       <c r="H5" s="13" t="s">
         <v>5</v>
@@ -1355,7 +1355,7 @@
         <v>34</v>
       </c>
       <c r="P5" s="13">
-        <v>216</v>
+        <v>413</v>
       </c>
       <c r="Q5" s="13" t="s">
         <v>77</v>
@@ -1373,7 +1373,7 @@
         <v>89</v>
       </c>
       <c r="V5" s="14">
-        <v>322</v>
+        <v>410</v>
       </c>
       <c r="W5" s="10"/>
       <c r="X5" s="10"/>
@@ -1518,7 +1518,7 @@
         <v>23</v>
       </c>
       <c r="G7" s="11">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>5</v>
@@ -1563,7 +1563,7 @@
         <v>89</v>
       </c>
       <c r="V7" s="12">
-        <v>206</v>
+        <v>410</v>
       </c>
       <c r="W7" s="10"/>
       <c r="X7" s="10"/>
@@ -1630,7 +1630,7 @@
         <v>2</v>
       </c>
       <c r="G8" s="13">
-        <v>322</v>
+        <v>410</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>33</v>
@@ -1639,7 +1639,7 @@
         <v>34</v>
       </c>
       <c r="J8" s="13">
-        <v>303</v>
+        <v>112</v>
       </c>
       <c r="K8" s="13" t="s">
         <v>56</v>
@@ -1675,7 +1675,7 @@
         <v>51</v>
       </c>
       <c r="V8" s="14">
-        <v>410</v>
+        <v>117</v>
       </c>
       <c r="W8" s="10"/>
       <c r="X8" s="10"/>
@@ -1742,7 +1742,7 @@
         <v>25</v>
       </c>
       <c r="G9" s="15">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H9" s="15" t="s">
         <v>35</v>
@@ -1751,7 +1751,7 @@
         <v>34</v>
       </c>
       <c r="J9" s="15">
-        <v>216</v>
+        <v>154</v>
       </c>
       <c r="K9" s="15" t="s">
         <v>56</v>
@@ -1769,7 +1769,7 @@
         <v>17</v>
       </c>
       <c r="P9" s="15">
-        <v>104</v>
+        <v>413</v>
       </c>
       <c r="Q9" s="15" t="s">
         <v>60</v>
@@ -1778,7 +1778,7 @@
         <v>61</v>
       </c>
       <c r="S9" s="15">
-        <v>405</v>
+        <v>301</v>
       </c>
       <c r="T9" s="15" t="s">
         <v>91</v>
@@ -1787,7 +1787,7 @@
         <v>89</v>
       </c>
       <c r="V9" s="16">
-        <v>206</v>
+        <v>410</v>
       </c>
       <c r="W9" s="10"/>
       <c r="X9" s="10"/>
@@ -1855,8 +1855,8 @@
       <c r="F10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="11">
-        <v>302</v>
+      <c r="G10" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>36</v>
@@ -1865,7 +1865,7 @@
         <v>37</v>
       </c>
       <c r="J10" s="11">
-        <v>152</v>
+        <v>416</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>56</v>
@@ -1892,7 +1892,7 @@
         <v>61</v>
       </c>
       <c r="S10" s="11">
-        <v>208</v>
+        <v>301</v>
       </c>
       <c r="T10" s="11" t="s">
         <v>91</v>
@@ -1968,7 +1968,7 @@
         <v>4</v>
       </c>
       <c r="G11" s="13">
-        <v>117</v>
+        <v>403</v>
       </c>
       <c r="H11" s="13" t="s">
         <v>38</v>
@@ -1977,7 +1977,7 @@
         <v>37</v>
       </c>
       <c r="J11" s="13">
-        <v>211</v>
+        <v>108</v>
       </c>
       <c r="K11" s="13" t="s">
         <v>58</v>
@@ -2071,7 +2071,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="13">
-        <v>213</v>
+        <v>306</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>5</v>
@@ -2089,7 +2089,7 @@
         <v>40</v>
       </c>
       <c r="J12" s="13">
-        <v>314</v>
+        <v>211</v>
       </c>
       <c r="K12" s="13" t="s">
         <v>5</v>
@@ -2107,7 +2107,7 @@
         <v>68</v>
       </c>
       <c r="P12" s="13">
-        <v>310</v>
+        <v>413</v>
       </c>
       <c r="Q12" s="13" t="s">
         <v>84</v>
@@ -2261,7 +2261,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="11">
-        <v>152</v>
+        <v>410</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>5</v>
@@ -2279,7 +2279,7 @@
         <v>37</v>
       </c>
       <c r="J14" s="11">
-        <v>717</v>
+        <v>404</v>
       </c>
       <c r="K14" s="11" t="s">
         <v>52</v>
@@ -2315,7 +2315,7 @@
         <v>89</v>
       </c>
       <c r="V14" s="12">
-        <v>410</v>
+        <v>203</v>
       </c>
       <c r="W14" s="10"/>
       <c r="X14" s="10"/>
@@ -2373,7 +2373,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="13">
-        <v>213</v>
+        <v>304</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>12</v>
@@ -2382,7 +2382,7 @@
         <v>13</v>
       </c>
       <c r="G15" s="13">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="H15" s="13" t="s">
         <v>39</v>
@@ -2391,7 +2391,7 @@
         <v>40</v>
       </c>
       <c r="J15" s="13">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="K15" s="13" t="s">
         <v>60</v>
@@ -2485,7 +2485,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="13">
-        <v>215</v>
+        <v>111</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>27</v>
@@ -2494,7 +2494,7 @@
         <v>9</v>
       </c>
       <c r="G16" s="13">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H16" s="17" t="s">
         <v>41</v>
@@ -2601,7 +2601,7 @@
         <v>43</v>
       </c>
       <c r="J17" s="15">
-        <v>217</v>
+        <v>151</v>
       </c>
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
@@ -2673,7 +2673,7 @@
         <v>15</v>
       </c>
       <c r="D18" s="11">
-        <v>311</v>
+        <v>123</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>27</v>
@@ -2682,7 +2682,7 @@
         <v>9</v>
       </c>
       <c r="G18" s="11">
-        <v>409</v>
+        <v>202</v>
       </c>
       <c r="H18" s="11" t="s">
         <v>44</v>
@@ -2691,7 +2691,7 @@
         <v>45</v>
       </c>
       <c r="J18" s="11">
-        <v>301</v>
+        <v>215</v>
       </c>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
@@ -2703,7 +2703,7 @@
         <v>42</v>
       </c>
       <c r="P18" s="11">
-        <v>209</v>
+        <v>413</v>
       </c>
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
@@ -2783,7 +2783,7 @@
         <v>43</v>
       </c>
       <c r="P19" s="13">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="Q19" s="13"/>
       <c r="R19" s="13"/>
@@ -2859,7 +2859,7 @@
         <v>9</v>
       </c>
       <c r="J20" s="13">
-        <v>123</v>
+        <v>206</v>
       </c>
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
@@ -2947,7 +2947,7 @@
         <v>48</v>
       </c>
       <c r="J21" s="15">
-        <v>403</v>
+        <v>200</v>
       </c>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>

--- a/Schedule Calculator Pro/bin/Debug/Розклад 3 курс.xlsx
+++ b/Schedule Calculator Pro/bin/Debug/Розклад 3 курс.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\SCP\Schedule Calculator Pro\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB93DA71-DA86-4118-A1BA-559847ABA3A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{597B0A6E-CBC6-4D7D-A096-449C04FA0860}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="450" windowWidth="13995" windowHeight="11505" xr2:uid="{31AC94AC-6827-4F13-A126-5C02A924C628}"/>
+    <workbookView xWindow="8100" yWindow="450" windowWidth="13995" windowHeight="11505" xr2:uid="{7349E5B8-4F99-4CE8-9F73-A1F7E19B3D1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="102">
   <si>
     <t>А30</t>
   </si>
@@ -48,6 +48,36 @@
     <t>Конишев В.С.</t>
   </si>
   <si>
+    <t>Іноземна мова (за проф. спрямуванням)</t>
+  </si>
+  <si>
+    <t>Семенюк Л.М.</t>
+  </si>
+  <si>
+    <t>Електроніка і схемотехніка</t>
+  </si>
+  <si>
+    <t>Кузьомко В.І.</t>
+  </si>
+  <si>
+    <t>Основи метрології і засоби технічного контролю</t>
+  </si>
+  <si>
+    <t>Автоматизований електропривод</t>
+  </si>
+  <si>
+    <t>Основи програмування та програмне забезпечення</t>
+  </si>
+  <si>
+    <t>Фуріхата Д.В.</t>
+  </si>
+  <si>
+    <t>Охорона праці в галузі</t>
+  </si>
+  <si>
+    <t>Шевчик О.А.</t>
+  </si>
+  <si>
     <t>Фізична культура</t>
   </si>
   <si>
@@ -57,36 +87,6 @@
     <t>с.з.</t>
   </si>
   <si>
-    <t>Електроніка і схемотехніка</t>
-  </si>
-  <si>
-    <t>Кузьомко В.І.</t>
-  </si>
-  <si>
-    <t>Основи метрології і засоби технічного контролю</t>
-  </si>
-  <si>
-    <t>Автоматизований електропривод</t>
-  </si>
-  <si>
-    <t>Іноземна мова (за проф. спрямуванням)</t>
-  </si>
-  <si>
-    <t>Семенюк Л.М.</t>
-  </si>
-  <si>
-    <t>Охорона праці в галузі</t>
-  </si>
-  <si>
-    <t>Шевчик О.А.</t>
-  </si>
-  <si>
-    <t>Основи програмування та програмне забезпечення</t>
-  </si>
-  <si>
-    <t>Фуріхата Д.В.</t>
-  </si>
-  <si>
     <t>Ел31</t>
   </si>
   <si>
@@ -165,15 +165,15 @@
     <t>Шуляр Т.М.</t>
   </si>
   <si>
+    <t>Основи метрології, стандартизації та взаємин</t>
+  </si>
+  <si>
     <t>Теорія імовірності та математична статистика</t>
   </si>
   <si>
     <t>Сорочиньска О.В.</t>
   </si>
   <si>
-    <t>Основи метрології, стандартизації та взаємин</t>
-  </si>
-  <si>
     <t>Алгоритми і методи обчислення</t>
   </si>
   <si>
@@ -195,30 +195,30 @@
     <t>Ковальчук О.В.</t>
   </si>
   <si>
+    <t>Обладнання галузі</t>
+  </si>
+  <si>
+    <t>Буханевич М.Й.</t>
+  </si>
+  <si>
+    <t>Основи електротехніки</t>
+  </si>
+  <si>
+    <t>Григор'єв М.Ю.</t>
+  </si>
+  <si>
+    <t>Соціологія</t>
+  </si>
+  <si>
+    <t>Кушнерчук Н.О.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Основи філософських знань </t>
   </si>
   <si>
     <t>Антонова Л.І.</t>
   </si>
   <si>
-    <t>Обладнання галузі</t>
-  </si>
-  <si>
-    <t>Буханевич М.Й.</t>
-  </si>
-  <si>
-    <t>Основи електротехніки</t>
-  </si>
-  <si>
-    <t>Григор'єв М.Ю.</t>
-  </si>
-  <si>
-    <t>Соціологія</t>
-  </si>
-  <si>
-    <t>Кушнерчук Н.О.</t>
-  </si>
-  <si>
     <t>Сушіння і захист деревини</t>
   </si>
   <si>
@@ -282,13 +282,13 @@
     <t>Політологія</t>
   </si>
   <si>
+    <t xml:space="preserve">Сімейне право </t>
+  </si>
+  <si>
+    <t>Веселянский Я.А.</t>
+  </si>
+  <si>
     <t>Методика і технологія соціальної роботи</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сімейне право </t>
-  </si>
-  <si>
-    <t>Веселянский Я.А.</t>
   </si>
   <si>
     <t xml:space="preserve">Основи соціальної педагогики </t>
@@ -618,13 +618,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -943,7 +943,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB8EDF72-55AA-494A-951C-23A9E7B4FF84}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC9D6950-E66A-48DE-B3A2-FB0DEA742E3A}">
   <dimension ref="A1:BP50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1095,7 +1095,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="11">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>19</v>
@@ -1113,7 +1113,7 @@
         <v>30</v>
       </c>
       <c r="J3" s="11">
-        <v>217</v>
+        <v>319</v>
       </c>
       <c r="K3" s="11" t="s">
         <v>50</v>
@@ -1122,10 +1122,10 @@
         <v>51</v>
       </c>
       <c r="M3" s="11">
-        <v>216</v>
+        <v>412</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O3" s="11" t="s">
         <v>31</v>
@@ -1143,13 +1143,13 @@
         <v>301</v>
       </c>
       <c r="T3" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="U3" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="V3" s="12">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="W3" s="10"/>
       <c r="X3" s="10"/>
@@ -1216,25 +1216,25 @@
         <v>21</v>
       </c>
       <c r="G4" s="13">
-        <v>152</v>
+        <v>301</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" s="13" t="s">
         <v>31</v>
       </c>
       <c r="J4" s="13">
-        <v>204</v>
+        <v>123</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="L4" s="13" t="s">
         <v>32</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="N4" s="13" t="s">
         <v>65</v>
@@ -1243,7 +1243,7 @@
         <v>66</v>
       </c>
       <c r="P4" s="13">
-        <v>302</v>
+        <v>413</v>
       </c>
       <c r="Q4" s="13" t="s">
         <v>75</v>
@@ -1252,7 +1252,7 @@
         <v>76</v>
       </c>
       <c r="S4" s="13">
-        <v>301</v>
+        <v>122</v>
       </c>
       <c r="T4" s="13" t="s">
         <v>88</v>
@@ -1319,7 +1319,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="13">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>22</v>
@@ -1328,16 +1328,16 @@
         <v>23</v>
       </c>
       <c r="G5" s="13">
-        <v>403</v>
+        <v>301</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I5" s="13" t="s">
         <v>32</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="K5" s="13" t="s">
         <v>52</v>
@@ -1346,7 +1346,7 @@
         <v>53</v>
       </c>
       <c r="M5" s="13">
-        <v>412</v>
+        <v>154</v>
       </c>
       <c r="N5" s="13" t="s">
         <v>33</v>
@@ -1364,7 +1364,7 @@
         <v>74</v>
       </c>
       <c r="S5" s="13">
-        <v>301</v>
+        <v>117</v>
       </c>
       <c r="T5" s="13" t="s">
         <v>90</v>
@@ -1518,16 +1518,16 @@
         <v>23</v>
       </c>
       <c r="G7" s="11">
-        <v>219</v>
+        <v>403</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I7" s="11" t="s">
         <v>32</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="K7" s="11" t="s">
         <v>54</v>
@@ -1620,8 +1620,8 @@
       <c r="C8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>7</v>
+      <c r="D8" s="13">
+        <v>321</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>1</v>
@@ -1630,7 +1630,7 @@
         <v>2</v>
       </c>
       <c r="G8" s="13">
-        <v>410</v>
+        <v>108</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>33</v>
@@ -1639,25 +1639,25 @@
         <v>34</v>
       </c>
       <c r="J8" s="13">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M8" s="13">
         <v>412</v>
       </c>
       <c r="N8" s="13" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="O8" s="13" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="P8" s="13">
-        <v>413</v>
+        <v>154</v>
       </c>
       <c r="Q8" s="13" t="s">
         <v>80</v>
@@ -1675,7 +1675,7 @@
         <v>51</v>
       </c>
       <c r="V8" s="14">
-        <v>117</v>
+        <v>410</v>
       </c>
       <c r="W8" s="10"/>
       <c r="X8" s="10"/>
@@ -1727,13 +1727,13 @@
     <row r="9" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="15" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D9" s="15">
+        <v>123</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>24</v>
@@ -1742,7 +1742,7 @@
         <v>25</v>
       </c>
       <c r="G9" s="15">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="H9" s="15" t="s">
         <v>35</v>
@@ -1751,31 +1751,31 @@
         <v>34</v>
       </c>
       <c r="J9" s="15">
-        <v>154</v>
+        <v>717</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M9" s="15">
         <v>412</v>
       </c>
       <c r="N9" s="15" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="O9" s="15" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="P9" s="15">
-        <v>413</v>
+        <v>104</v>
       </c>
       <c r="Q9" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="R9" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="S9" s="15">
         <v>301</v>
@@ -1841,10 +1841,10 @@
         <v>99</v>
       </c>
       <c r="B10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>8</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>9</v>
       </c>
       <c r="D10" s="11">
         <v>311</v>
@@ -1855,8 +1855,8 @@
       <c r="F10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="11" t="s">
-        <v>7</v>
+      <c r="G10" s="11">
+        <v>416</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>36</v>
@@ -1865,7 +1865,7 @@
         <v>37</v>
       </c>
       <c r="J10" s="11">
-        <v>416</v>
+        <v>717</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>56</v>
@@ -1877,7 +1877,7 @@
         <v>412</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="O10" s="11" t="s">
         <v>68</v>
@@ -1889,7 +1889,7 @@
         <v>82</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="S10" s="11">
         <v>301</v>
@@ -1953,13 +1953,13 @@
     <row r="11" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>9</v>
-      </c>
       <c r="D11" s="13">
-        <v>311</v>
+        <v>202</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>19</v>
@@ -1968,7 +1968,7 @@
         <v>4</v>
       </c>
       <c r="G11" s="13">
-        <v>403</v>
+        <v>117</v>
       </c>
       <c r="H11" s="13" t="s">
         <v>38</v>
@@ -1977,31 +1977,31 @@
         <v>37</v>
       </c>
       <c r="J11" s="13">
-        <v>108</v>
+        <v>311</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="M11" s="13">
-        <v>412</v>
+        <v>32</v>
+      </c>
+      <c r="M11" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="N11" s="13" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="O11" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="P11" s="13" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="P11" s="13">
+        <v>413</v>
       </c>
       <c r="Q11" s="13" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="R11" s="13" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="S11" s="13">
         <v>301</v>
@@ -2068,19 +2068,19 @@
         <v>10</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" s="13">
-        <v>306</v>
+        <v>209</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F12" s="13" t="s">
         <v>26</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="H12" s="13" t="s">
         <v>39</v>
@@ -2089,31 +2089,31 @@
         <v>40</v>
       </c>
       <c r="J12" s="13">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="L12" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="M12" s="13" t="s">
-        <v>7</v>
+        <v>53</v>
+      </c>
+      <c r="M12" s="13">
+        <v>412</v>
       </c>
       <c r="N12" s="13" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="O12" s="13" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="P12" s="13">
         <v>413</v>
       </c>
       <c r="Q12" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="R12" s="13" t="s">
         <v>84</v>
-      </c>
-      <c r="R12" s="13" t="s">
-        <v>85</v>
       </c>
       <c r="S12" s="13">
         <v>301</v>
@@ -2195,13 +2195,13 @@
       <c r="R13" s="15"/>
       <c r="S13" s="15"/>
       <c r="T13" s="15" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="U13" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="V13" s="16">
-        <v>410</v>
+        <v>32</v>
+      </c>
+      <c r="V13" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="W13" s="10"/>
       <c r="X13" s="10"/>
@@ -2255,22 +2255,22 @@
         <v>100</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14" s="11">
-        <v>410</v>
+        <v>210</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>26</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="H14" s="11" t="s">
         <v>38</v>
@@ -2279,43 +2279,43 @@
         <v>37</v>
       </c>
       <c r="J14" s="11">
-        <v>404</v>
+        <v>302</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="M14" s="11">
         <v>412</v>
       </c>
-      <c r="N14" s="11" t="s">
-        <v>70</v>
+      <c r="N14" s="17" t="s">
+        <v>41</v>
       </c>
       <c r="O14" s="11" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="P14" s="11">
         <v>413</v>
       </c>
       <c r="Q14" s="11" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="S14" s="11">
         <v>301</v>
       </c>
       <c r="T14" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U14" s="11" t="s">
         <v>89</v>
       </c>
       <c r="V14" s="12">
-        <v>203</v>
+        <v>410</v>
       </c>
       <c r="W14" s="10"/>
       <c r="X14" s="10"/>
@@ -2366,69 +2366,31 @@
     </row>
     <row r="15" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
-      <c r="B15" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="13">
-        <v>304</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="13">
-        <v>122</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="J15" s="13">
-        <v>306</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="M15" s="13">
-        <v>412</v>
-      </c>
-      <c r="N15" s="13" t="s">
-        <v>5</v>
-      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="18"/>
       <c r="O15" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="P15" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q15" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="R15" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="S15" s="13">
-        <v>301</v>
-      </c>
-      <c r="T15" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="U15" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="V15" s="14">
-        <v>410</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="P15" s="13">
+        <v>308</v>
+      </c>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="14"/>
       <c r="W15" s="10"/>
       <c r="X15" s="10"/>
       <c r="Y15" s="10"/>
@@ -2479,49 +2441,49 @@
     <row r="16" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>13</v>
-      </c>
       <c r="D16" s="13">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>27</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G16" s="13">
-        <v>319</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>41</v>
+        <v>204</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J16" s="13">
-        <v>416</v>
+        <v>104</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L16" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M16" s="13">
         <v>412</v>
       </c>
       <c r="N16" s="13" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="O16" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="P16" s="13">
-        <v>413</v>
+        <v>32</v>
+      </c>
+      <c r="P16" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="Q16" s="13" t="s">
         <v>86</v>
@@ -2533,13 +2495,13 @@
         <v>301</v>
       </c>
       <c r="T16" s="13" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="U16" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="V16" s="14" t="s">
-        <v>7</v>
+        <v>89</v>
+      </c>
+      <c r="V16" s="14">
+        <v>410</v>
       </c>
       <c r="W16" s="10"/>
       <c r="X16" s="10"/>
@@ -2588,33 +2550,65 @@
       <c r="BO16" s="10"/>
       <c r="BP16" s="10"/>
     </row>
-    <row r="17" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="J17" s="15">
-        <v>151</v>
-      </c>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="16"/>
+    <row r="17" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="13">
+        <v>111</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="13">
+        <v>154</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J17" s="13">
+        <v>215</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="M17" s="13">
+        <v>411</v>
+      </c>
+      <c r="N17" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="O17" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="P17" s="13">
+        <v>413</v>
+      </c>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="U17" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="V17" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="W17" s="10"/>
       <c r="X17" s="10"/>
       <c r="Y17" s="10"/>
@@ -2662,61 +2656,33 @@
       <c r="BO17" s="10"/>
       <c r="BP17" s="10"/>
     </row>
-    <row r="18" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="11">
-        <v>123</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="11">
-        <v>202</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="J18" s="11">
-        <v>215</v>
-      </c>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="O18" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="P18" s="11">
-        <v>413</v>
-      </c>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="U18" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="V18" s="12" t="s">
-        <v>7</v>
-      </c>
+    <row r="18" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J18" s="15">
+        <v>122</v>
+      </c>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="16"/>
       <c r="W18" s="10"/>
       <c r="X18" s="10"/>
       <c r="Y18" s="10"/>
@@ -2765,32 +2731,54 @@
       <c r="BP18" s="10"/>
     </row>
     <row r="19" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="P19" s="13">
-        <v>211</v>
-      </c>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="14"/>
+      <c r="A19" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19" s="11">
+        <v>151</v>
+      </c>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="O19" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="P19" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="U19" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="V19" s="12">
+        <v>410</v>
+      </c>
       <c r="W19" s="10"/>
       <c r="X19" s="10"/>
       <c r="Y19" s="10"/>
@@ -2841,32 +2829,44 @@
     <row r="20" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="D20" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="13">
+      <c r="E20" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="13">
+        <v>151</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J20" s="13">
         <v>104</v>
-      </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="J20" s="13">
-        <v>206</v>
       </c>
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
       <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
+      <c r="N20" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="O20" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="P20" s="13">
+        <v>413</v>
+      </c>
       <c r="Q20" s="13"/>
       <c r="R20" s="13"/>
       <c r="S20" s="13"/>
@@ -2929,17 +2929,23 @@
     <row r="21" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="15" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D21" s="15">
         <v>104</v>
       </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
+      <c r="E21" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="15">
+        <v>318</v>
+      </c>
       <c r="H21" s="15" t="s">
         <v>47</v>
       </c>
@@ -2947,7 +2953,7 @@
         <v>48</v>
       </c>
       <c r="J21" s="15">
-        <v>200</v>
+        <v>303</v>
       </c>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
@@ -5017,21 +5023,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="Q2:S2"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:J2"/>
-    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H17:H18"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
+    <mergeCell ref="N14:N15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Schedule Calculator Pro/bin/Debug/Розклад 3 курс.xlsx
+++ b/Schedule Calculator Pro/bin/Debug/Розклад 3 курс.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\SCP\Schedule Calculator Pro\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{597B0A6E-CBC6-4D7D-A096-449C04FA0860}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{644E45C0-97CF-4439-AC22-6BC9FF7CE371}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="450" windowWidth="13995" windowHeight="11505" xr2:uid="{7349E5B8-4F99-4CE8-9F73-A1F7E19B3D1D}"/>
+    <workbookView xWindow="8100" yWindow="450" windowWidth="13995" windowHeight="11505" xr2:uid="{8D7B4688-773B-41CF-8A69-A5187C094AA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -943,7 +943,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC9D6950-E66A-48DE-B3A2-FB0DEA742E3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245A977A-9300-41AA-99EE-D2A7821665EE}">
   <dimension ref="A1:BP50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1095,7 +1095,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="11">
-        <v>404</v>
+        <v>219</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>19</v>
@@ -1113,7 +1113,7 @@
         <v>30</v>
       </c>
       <c r="J3" s="11">
-        <v>319</v>
+        <v>410</v>
       </c>
       <c r="K3" s="11" t="s">
         <v>50</v>
@@ -1122,7 +1122,7 @@
         <v>51</v>
       </c>
       <c r="M3" s="11">
-        <v>412</v>
+        <v>216</v>
       </c>
       <c r="N3" s="11" t="s">
         <v>13</v>
@@ -1149,7 +1149,7 @@
         <v>59</v>
       </c>
       <c r="V3" s="12">
-        <v>410</v>
+        <v>108</v>
       </c>
       <c r="W3" s="10"/>
       <c r="X3" s="10"/>
@@ -1216,7 +1216,7 @@
         <v>21</v>
       </c>
       <c r="G4" s="13">
-        <v>301</v>
+        <v>152</v>
       </c>
       <c r="H4" s="13" t="s">
         <v>13</v>
@@ -1225,7 +1225,7 @@
         <v>31</v>
       </c>
       <c r="J4" s="13">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="K4" s="13" t="s">
         <v>15</v>
@@ -1252,7 +1252,7 @@
         <v>76</v>
       </c>
       <c r="S4" s="13">
-        <v>122</v>
+        <v>301</v>
       </c>
       <c r="T4" s="13" t="s">
         <v>88</v>
@@ -1319,7 +1319,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="13">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>22</v>
@@ -1328,7 +1328,7 @@
         <v>23</v>
       </c>
       <c r="G5" s="13">
-        <v>301</v>
+        <v>213</v>
       </c>
       <c r="H5" s="13" t="s">
         <v>15</v>
@@ -1346,7 +1346,7 @@
         <v>53</v>
       </c>
       <c r="M5" s="13">
-        <v>154</v>
+        <v>412</v>
       </c>
       <c r="N5" s="13" t="s">
         <v>33</v>
@@ -1364,7 +1364,7 @@
         <v>74</v>
       </c>
       <c r="S5" s="13">
-        <v>117</v>
+        <v>301</v>
       </c>
       <c r="T5" s="13" t="s">
         <v>90</v>
@@ -1518,7 +1518,7 @@
         <v>23</v>
       </c>
       <c r="G7" s="11">
-        <v>403</v>
+        <v>215</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>15</v>
@@ -1545,7 +1545,7 @@
         <v>68</v>
       </c>
       <c r="P7" s="11">
-        <v>413</v>
+        <v>214</v>
       </c>
       <c r="Q7" s="11" t="s">
         <v>78</v>
@@ -1621,7 +1621,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="13">
-        <v>321</v>
+        <v>214</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>1</v>
@@ -1630,7 +1630,7 @@
         <v>2</v>
       </c>
       <c r="G8" s="13">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>33</v>
@@ -1639,7 +1639,7 @@
         <v>34</v>
       </c>
       <c r="J8" s="13">
-        <v>104</v>
+        <v>219</v>
       </c>
       <c r="K8" s="13" t="s">
         <v>54</v>
@@ -1657,7 +1657,7 @@
         <v>68</v>
       </c>
       <c r="P8" s="13">
-        <v>154</v>
+        <v>413</v>
       </c>
       <c r="Q8" s="13" t="s">
         <v>80</v>
@@ -1733,7 +1733,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="15">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>24</v>
@@ -1742,7 +1742,7 @@
         <v>25</v>
       </c>
       <c r="G9" s="15">
-        <v>204</v>
+        <v>304</v>
       </c>
       <c r="H9" s="15" t="s">
         <v>35</v>
@@ -1751,7 +1751,7 @@
         <v>34</v>
       </c>
       <c r="J9" s="15">
-        <v>717</v>
+        <v>202</v>
       </c>
       <c r="K9" s="15" t="s">
         <v>54</v>
@@ -1856,7 +1856,7 @@
         <v>25</v>
       </c>
       <c r="G10" s="11">
-        <v>416</v>
+        <v>202</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>36</v>
@@ -1865,7 +1865,7 @@
         <v>37</v>
       </c>
       <c r="J10" s="11">
-        <v>717</v>
+        <v>218</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>56</v>
@@ -1959,7 +1959,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="13">
-        <v>202</v>
+        <v>310</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>19</v>
@@ -1977,7 +1977,7 @@
         <v>37</v>
       </c>
       <c r="J11" s="13">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="K11" s="13" t="s">
         <v>15</v>
@@ -2071,7 +2071,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="13">
-        <v>209</v>
+        <v>104</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>15</v>
@@ -2089,7 +2089,7 @@
         <v>40</v>
       </c>
       <c r="J12" s="13">
-        <v>217</v>
+        <v>111</v>
       </c>
       <c r="K12" s="13" t="s">
         <v>52</v>
@@ -2125,7 +2125,7 @@
         <v>89</v>
       </c>
       <c r="V12" s="14">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="W12" s="10"/>
       <c r="X12" s="10"/>
@@ -2261,7 +2261,7 @@
         <v>8</v>
       </c>
       <c r="D14" s="11">
-        <v>210</v>
+        <v>411</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>15</v>
@@ -2279,7 +2279,7 @@
         <v>37</v>
       </c>
       <c r="J14" s="11">
-        <v>302</v>
+        <v>201</v>
       </c>
       <c r="K14" s="11" t="s">
         <v>58</v>
@@ -2383,7 +2383,7 @@
         <v>43</v>
       </c>
       <c r="P15" s="13">
-        <v>308</v>
+        <v>403</v>
       </c>
       <c r="Q15" s="13"/>
       <c r="R15" s="13"/>
@@ -2447,7 +2447,7 @@
         <v>12</v>
       </c>
       <c r="D16" s="13">
-        <v>154</v>
+        <v>104</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>27</v>
@@ -2456,7 +2456,7 @@
         <v>8</v>
       </c>
       <c r="G16" s="13">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="H16" s="13" t="s">
         <v>39</v>
@@ -2465,7 +2465,7 @@
         <v>40</v>
       </c>
       <c r="J16" s="13">
-        <v>104</v>
+        <v>203</v>
       </c>
       <c r="K16" s="13" t="s">
         <v>60</v>
@@ -2559,7 +2559,7 @@
         <v>14</v>
       </c>
       <c r="D17" s="13">
-        <v>111</v>
+        <v>214</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>27</v>
@@ -2568,7 +2568,7 @@
         <v>8</v>
       </c>
       <c r="G17" s="13">
-        <v>154</v>
+        <v>410</v>
       </c>
       <c r="H17" s="18" t="s">
         <v>41</v>
@@ -2577,7 +2577,7 @@
         <v>42</v>
       </c>
       <c r="J17" s="13">
-        <v>215</v>
+        <v>321</v>
       </c>
       <c r="K17" s="13" t="s">
         <v>62</v>
@@ -2586,7 +2586,7 @@
         <v>63</v>
       </c>
       <c r="M17" s="13">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N17" s="13" t="s">
         <v>60</v>
@@ -2669,7 +2669,7 @@
         <v>43</v>
       </c>
       <c r="J18" s="15">
-        <v>122</v>
+        <v>210</v>
       </c>
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
@@ -2753,7 +2753,7 @@
         <v>8</v>
       </c>
       <c r="J19" s="11">
-        <v>151</v>
+        <v>203</v>
       </c>
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
@@ -2844,7 +2844,7 @@
         <v>6</v>
       </c>
       <c r="G20" s="13">
-        <v>151</v>
+        <v>214</v>
       </c>
       <c r="H20" s="13" t="s">
         <v>45</v>
@@ -2853,7 +2853,7 @@
         <v>46</v>
       </c>
       <c r="J20" s="13">
-        <v>104</v>
+        <v>203</v>
       </c>
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
@@ -2944,7 +2944,7 @@
         <v>14</v>
       </c>
       <c r="G21" s="15">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="H21" s="15" t="s">
         <v>47</v>
@@ -2953,7 +2953,7 @@
         <v>48</v>
       </c>
       <c r="J21" s="15">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>

--- a/Schedule Calculator Pro/bin/Debug/Розклад 3 курс.xlsx
+++ b/Schedule Calculator Pro/bin/Debug/Розклад 3 курс.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\SCP\Schedule Calculator Pro\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{644E45C0-97CF-4439-AC22-6BC9FF7CE371}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC77829D-0CDE-4DF4-AC62-C5BB9FE75EE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="450" windowWidth="13995" windowHeight="11505" xr2:uid="{8D7B4688-773B-41CF-8A69-A5187C094AA1}"/>
+    <workbookView xWindow="3900" yWindow="450" windowWidth="13995" windowHeight="11505" xr2:uid="{77270F16-93CF-4B24-BF87-EDD267788FCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="102">
   <si>
     <t>А30</t>
   </si>
@@ -156,6 +156,87 @@
     <t>Сербин Г.Л.</t>
   </si>
   <si>
+    <t>Алгоритми і методи обчислення</t>
+  </si>
+  <si>
+    <t>Чижмотря О.Г.</t>
+  </si>
+  <si>
+    <t>Основи метрології, стандартизації та взаємин</t>
+  </si>
+  <si>
+    <t>Теорія імовірності та математична статистика</t>
+  </si>
+  <si>
+    <t>Сорочиньска О.В.</t>
+  </si>
+  <si>
+    <t>Лг32</t>
+  </si>
+  <si>
+    <t>Основи охорони праці</t>
+  </si>
+  <si>
+    <t>Дишлева Т.І.</t>
+  </si>
+  <si>
+    <t>Основи конструювання виробів з деревини</t>
+  </si>
+  <si>
+    <t>Ковальчук О.В.</t>
+  </si>
+  <si>
+    <t>Обладнання галузі</t>
+  </si>
+  <si>
+    <t>Буханевич М.Й.</t>
+  </si>
+  <si>
+    <t>Основи електротехніки</t>
+  </si>
+  <si>
+    <t>Григор'єв М.Ю.</t>
+  </si>
+  <si>
+    <t>Соціологія</t>
+  </si>
+  <si>
+    <t>Кушнерчук Н.О.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основи філософських знань </t>
+  </si>
+  <si>
+    <t>Антонова Л.І.</t>
+  </si>
+  <si>
+    <t>Сушіння і захист деревини</t>
+  </si>
+  <si>
+    <t>Шурпан М.М.</t>
+  </si>
+  <si>
+    <t>П33</t>
+  </si>
+  <si>
+    <t>Об'єктно-орієнтоване програмування</t>
+  </si>
+  <si>
+    <t>Левкіський В.Л.</t>
+  </si>
+  <si>
+    <t>Чисельні методи</t>
+  </si>
+  <si>
+    <t>Подлєсна К.А.</t>
+  </si>
+  <si>
+    <t>Дискретна математика</t>
+  </si>
+  <si>
+    <t>WEB-дизайн</t>
+  </si>
+  <si>
     <t>Іноземна мова</t>
   </si>
   <si>
@@ -163,87 +244,6 @@
   </si>
   <si>
     <t>Шуляр Т.М.</t>
-  </si>
-  <si>
-    <t>Основи метрології, стандартизації та взаємин</t>
-  </si>
-  <si>
-    <t>Теорія імовірності та математична статистика</t>
-  </si>
-  <si>
-    <t>Сорочиньска О.В.</t>
-  </si>
-  <si>
-    <t>Алгоритми і методи обчислення</t>
-  </si>
-  <si>
-    <t>Чижмотря О.Г.</t>
-  </si>
-  <si>
-    <t>Лг32</t>
-  </si>
-  <si>
-    <t>Основи охорони праці</t>
-  </si>
-  <si>
-    <t>Дишлева Т.І.</t>
-  </si>
-  <si>
-    <t>Основи конструювання виробів з деревини</t>
-  </si>
-  <si>
-    <t>Ковальчук О.В.</t>
-  </si>
-  <si>
-    <t>Обладнання галузі</t>
-  </si>
-  <si>
-    <t>Буханевич М.Й.</t>
-  </si>
-  <si>
-    <t>Основи електротехніки</t>
-  </si>
-  <si>
-    <t>Григор'єв М.Ю.</t>
-  </si>
-  <si>
-    <t>Соціологія</t>
-  </si>
-  <si>
-    <t>Кушнерчук Н.О.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Основи філософських знань </t>
-  </si>
-  <si>
-    <t>Антонова Л.І.</t>
-  </si>
-  <si>
-    <t>Сушіння і захист деревини</t>
-  </si>
-  <si>
-    <t>Шурпан М.М.</t>
-  </si>
-  <si>
-    <t>П33</t>
-  </si>
-  <si>
-    <t>Об'єктно-орієнтоване програмування</t>
-  </si>
-  <si>
-    <t>Левкіський В.Л.</t>
-  </si>
-  <si>
-    <t>Чисельні методи</t>
-  </si>
-  <si>
-    <t>Подлєсна К.А.</t>
-  </si>
-  <si>
-    <t>Дискретна математика</t>
-  </si>
-  <si>
-    <t>WEB-дизайн</t>
   </si>
   <si>
     <t xml:space="preserve">Алгоритми та структури даних </t>
@@ -572,7 +572,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -622,9 +622,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -943,7 +940,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245A977A-9300-41AA-99EE-D2A7821665EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75EE71E8-C256-4C9B-90EA-C2B444F56A14}">
   <dimension ref="A1:BP50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -969,13 +966,13 @@
     <col min="17" max="17" width="39.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:68" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>96</v>
       </c>
       <c r="B1" s="1"/>
@@ -1018,12 +1015,12 @@
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
       <c r="N2" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
@@ -1095,7 +1092,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="11">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>19</v>
@@ -1113,16 +1110,16 @@
         <v>30</v>
       </c>
       <c r="J3" s="11">
-        <v>410</v>
+        <v>306</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="M3" s="11">
-        <v>216</v>
+        <v>412</v>
       </c>
       <c r="N3" s="11" t="s">
         <v>13</v>
@@ -1131,7 +1128,7 @@
         <v>31</v>
       </c>
       <c r="P3" s="11">
-        <v>413</v>
+        <v>201</v>
       </c>
       <c r="Q3" s="11" t="s">
         <v>73</v>
@@ -1143,13 +1140,13 @@
         <v>301</v>
       </c>
       <c r="T3" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="U3" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="V3" s="12">
-        <v>108</v>
+        <v>410</v>
       </c>
       <c r="W3" s="10"/>
       <c r="X3" s="10"/>
@@ -1216,7 +1213,7 @@
         <v>21</v>
       </c>
       <c r="G4" s="13">
-        <v>152</v>
+        <v>208</v>
       </c>
       <c r="H4" s="13" t="s">
         <v>13</v>
@@ -1225,7 +1222,7 @@
         <v>31</v>
       </c>
       <c r="J4" s="13">
-        <v>108</v>
+        <v>410</v>
       </c>
       <c r="K4" s="13" t="s">
         <v>15</v>
@@ -1237,13 +1234,13 @@
         <v>17</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O4" s="13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P4" s="13">
-        <v>413</v>
+        <v>108</v>
       </c>
       <c r="Q4" s="13" t="s">
         <v>75</v>
@@ -1261,7 +1258,7 @@
         <v>89</v>
       </c>
       <c r="V4" s="14">
-        <v>410</v>
+        <v>214</v>
       </c>
       <c r="W4" s="10"/>
       <c r="X4" s="10"/>
@@ -1328,7 +1325,7 @@
         <v>23</v>
       </c>
       <c r="G5" s="13">
-        <v>213</v>
+        <v>154</v>
       </c>
       <c r="H5" s="13" t="s">
         <v>15</v>
@@ -1340,10 +1337,10 @@
         <v>17</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="M5" s="13">
         <v>412</v>
@@ -1443,10 +1440,10 @@
       <c r="R6" s="15"/>
       <c r="S6" s="15"/>
       <c r="T6" s="15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="U6" s="15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="V6" s="16">
         <v>410</v>
@@ -1509,7 +1506,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="11">
-        <v>117</v>
+        <v>322</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>22</v>
@@ -1518,7 +1515,7 @@
         <v>23</v>
       </c>
       <c r="G7" s="11">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>15</v>
@@ -1530,22 +1527,22 @@
         <v>17</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M7" s="11">
         <v>412</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P7" s="11">
-        <v>214</v>
+        <v>413</v>
       </c>
       <c r="Q7" s="11" t="s">
         <v>78</v>
@@ -1621,7 +1618,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="13">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>1</v>
@@ -1630,7 +1627,7 @@
         <v>2</v>
       </c>
       <c r="G8" s="13">
-        <v>112</v>
+        <v>404</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>33</v>
@@ -1639,25 +1636,25 @@
         <v>34</v>
       </c>
       <c r="J8" s="13">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M8" s="13">
-        <v>412</v>
+        <v>311</v>
       </c>
       <c r="N8" s="13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O8" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P8" s="13">
-        <v>413</v>
+        <v>204</v>
       </c>
       <c r="Q8" s="13" t="s">
         <v>80</v>
@@ -1669,10 +1666,10 @@
         <v>301</v>
       </c>
       <c r="T8" s="13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="U8" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="V8" s="14">
         <v>410</v>
@@ -1733,7 +1730,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="15">
-        <v>112</v>
+        <v>217</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>24</v>
@@ -1742,7 +1739,7 @@
         <v>25</v>
       </c>
       <c r="G9" s="15">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="H9" s="15" t="s">
         <v>35</v>
@@ -1751,13 +1748,13 @@
         <v>34</v>
       </c>
       <c r="J9" s="15">
-        <v>202</v>
+        <v>314</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M9" s="15">
         <v>412</v>
@@ -1772,10 +1769,10 @@
         <v>104</v>
       </c>
       <c r="Q9" s="15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R9" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="S9" s="15">
         <v>301</v>
@@ -1856,7 +1853,7 @@
         <v>25</v>
       </c>
       <c r="G10" s="11">
-        <v>202</v>
+        <v>413</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>36</v>
@@ -1865,34 +1862,34 @@
         <v>37</v>
       </c>
       <c r="J10" s="11">
-        <v>218</v>
+        <v>105</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M10" s="11">
         <v>412</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O10" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P10" s="11">
-        <v>413</v>
+        <v>152</v>
       </c>
       <c r="Q10" s="11" t="s">
         <v>82</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="S10" s="11">
-        <v>301</v>
+        <v>322</v>
       </c>
       <c r="T10" s="11" t="s">
         <v>91</v>
@@ -1959,7 +1956,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="13">
-        <v>310</v>
+        <v>216</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>19</v>
@@ -1977,7 +1974,7 @@
         <v>37</v>
       </c>
       <c r="J11" s="13">
-        <v>322</v>
+        <v>106</v>
       </c>
       <c r="K11" s="13" t="s">
         <v>15</v>
@@ -1989,7 +1986,7 @@
         <v>17</v>
       </c>
       <c r="N11" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O11" s="13" t="s">
         <v>12</v>
@@ -1998,10 +1995,10 @@
         <v>413</v>
       </c>
       <c r="Q11" s="13" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="R11" s="13" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="S11" s="13">
         <v>301</v>
@@ -2071,7 +2068,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="13">
-        <v>104</v>
+        <v>200</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>15</v>
@@ -2089,19 +2086,19 @@
         <v>40</v>
       </c>
       <c r="J12" s="13">
-        <v>111</v>
+        <v>302</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L12" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="M12" s="13">
         <v>412</v>
       </c>
       <c r="N12" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O12" s="13" t="s">
         <v>12</v>
@@ -2125,7 +2122,7 @@
         <v>89</v>
       </c>
       <c r="V12" s="14">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="W12" s="10"/>
       <c r="X12" s="10"/>
@@ -2261,7 +2258,7 @@
         <v>8</v>
       </c>
       <c r="D14" s="11">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>15</v>
@@ -2279,22 +2276,22 @@
         <v>37</v>
       </c>
       <c r="J14" s="11">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M14" s="11">
         <v>412</v>
       </c>
       <c r="N14" s="17" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="O14" s="11" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="P14" s="11">
         <v>413</v>
@@ -2380,10 +2377,10 @@
       <c r="M15" s="13"/>
       <c r="N15" s="18"/>
       <c r="O15" s="13" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="P15" s="13">
-        <v>403</v>
+        <v>152</v>
       </c>
       <c r="Q15" s="13"/>
       <c r="R15" s="13"/>
@@ -2456,7 +2453,7 @@
         <v>8</v>
       </c>
       <c r="G16" s="13">
-        <v>213</v>
+        <v>122</v>
       </c>
       <c r="H16" s="13" t="s">
         <v>39</v>
@@ -2465,13 +2462,13 @@
         <v>40</v>
       </c>
       <c r="J16" s="13">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L16" s="13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="M16" s="13">
         <v>412</v>
@@ -2550,63 +2547,63 @@
       <c r="BO16" s="10"/>
       <c r="BP16" s="10"/>
     </row>
-    <row r="17" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="13" t="s">
+    <row r="17" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="13">
-        <v>214</v>
-      </c>
-      <c r="E17" s="13" t="s">
+      <c r="D17" s="15">
+        <v>105</v>
+      </c>
+      <c r="E17" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="13">
-        <v>410</v>
-      </c>
-      <c r="H17" s="18" t="s">
+      <c r="G17" s="15">
+        <v>314</v>
+      </c>
+      <c r="H17" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="13" t="s">
+      <c r="I17" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="J17" s="13">
-        <v>321</v>
-      </c>
-      <c r="K17" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="L17" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="M17" s="13">
+      <c r="J17" s="15">
+        <v>219</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="L17" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="M17" s="15">
         <v>412</v>
       </c>
-      <c r="N17" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="O17" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="P17" s="13">
+      <c r="N17" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="O17" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="P17" s="15">
         <v>413</v>
       </c>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13" t="s">
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="U17" s="13" t="s">
+      <c r="U17" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="V17" s="14" t="s">
+      <c r="V17" s="16" t="s">
         <v>17</v>
       </c>
       <c r="W17" s="10"/>
@@ -2656,33 +2653,55 @@
       <c r="BO17" s="10"/>
       <c r="BP17" s="10"/>
     </row>
-    <row r="18" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="15" t="s">
+    <row r="18" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="J18" s="15">
-        <v>210</v>
-      </c>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="16"/>
+      <c r="I18" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="11">
+        <v>322</v>
+      </c>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="O18" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="P18" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="U18" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="V18" s="12">
+        <v>410</v>
+      </c>
       <c r="W18" s="10"/>
       <c r="X18" s="10"/>
       <c r="Y18" s="10"/>
@@ -2731,52 +2750,56 @@
       <c r="BP18" s="10"/>
     </row>
     <row r="19" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B19" s="11" t="s">
+      <c r="A19" s="5"/>
+      <c r="B19" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11" t="s">
+      <c r="E19" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="13">
+        <v>216</v>
+      </c>
+      <c r="H19" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="I19" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="J19" s="11">
-        <v>203</v>
-      </c>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="O19" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="P19" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11" t="s">
+      <c r="I19" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J19" s="13">
+        <v>409</v>
+      </c>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="O19" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="P19" s="13">
+        <v>413</v>
+      </c>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="U19" s="11" t="s">
+      <c r="U19" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="V19" s="12">
+      <c r="V19" s="14">
         <v>410</v>
       </c>
       <c r="W19" s="10"/>
@@ -2826,57 +2849,45 @@
       <c r="BO19" s="10"/>
       <c r="BP19" s="10"/>
     </row>
-    <row r="20" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="13" t="s">
+    <row r="20" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6"/>
+      <c r="B20" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="15">
+        <v>104</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="15">
+        <v>321</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G20" s="13">
-        <v>214</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="J20" s="13">
-        <v>203</v>
-      </c>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="O20" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="P20" s="13">
-        <v>413</v>
-      </c>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="U20" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="V20" s="14">
+      <c r="U20" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="V20" s="16">
         <v>410</v>
       </c>
       <c r="W20" s="10"/>
@@ -2926,47 +2937,29 @@
       <c r="BO20" s="10"/>
       <c r="BP20" s="10"/>
     </row>
-    <row r="21" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="15">
-        <v>104</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="15">
-        <v>303</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="J21" s="15">
-        <v>204</v>
-      </c>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="15"/>
-      <c r="V21" s="16"/>
+    <row r="21" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
       <c r="W21" s="10"/>
       <c r="X21" s="10"/>
       <c r="Y21" s="10"/>
@@ -5022,9 +5015,9 @@
       <c r="BP50" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A19:A21"/>
+  <mergeCells count="14">
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A20"/>
     <mergeCell ref="Q2:S2"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="A1:V1"/>
@@ -5034,7 +5027,6 @@
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:J2"/>
-    <mergeCell ref="H17:H18"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="N14:N15"/>

--- a/Schedule Calculator Pro/bin/Debug/Розклад 3 курс.xlsx
+++ b/Schedule Calculator Pro/bin/Debug/Розклад 3 курс.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\SCP\Schedule Calculator Pro\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0500EFE8-6FBD-446C-9632-32101FB246D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DD317A6-CA15-4BEB-A107-AB76AFFEC7A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14475" yWindow="2805" windowWidth="13995" windowHeight="11505" xr2:uid="{171C89B5-66BD-43B6-9F0A-F2BA76560B67}"/>
+    <workbookView xWindow="14475" yWindow="2805" windowWidth="13995" windowHeight="11505" xr2:uid="{2D18CF31-4A37-4765-9212-79018FF50490}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -580,7 +580,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -590,6 +589,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -940,7 +940,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F714EC7C-DE3E-4B46-8451-D0C4D0113E07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB1B1F55-F147-423B-B865-6F1158837733}">
   <dimension ref="A1:BP50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -998,7 +998,7 @@
       <c r="V1" s="2"/>
     </row>
     <row r="2" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
+      <c r="A2" s="6"/>
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
@@ -1082,7 +1082,7 @@
       <c r="BP2" s="10"/>
     </row>
     <row r="3" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -1196,7 +1196,7 @@
       <c r="BP3" s="10"/>
     </row>
     <row r="4" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
+      <c r="A4" s="4"/>
       <c r="B4" s="13" t="s">
         <v>3</v>
       </c>
@@ -1308,7 +1308,7 @@
       <c r="BP4" s="10"/>
     </row>
     <row r="5" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
+      <c r="A5" s="4"/>
       <c r="B5" s="13" t="s">
         <v>3</v>
       </c>
@@ -1420,7 +1420,7 @@
       <c r="BP5" s="10"/>
     </row>
     <row r="6" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
+      <c r="A6" s="5"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
@@ -1496,7 +1496,7 @@
       <c r="BP6" s="10"/>
     </row>
     <row r="7" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -1610,7 +1610,7 @@
       <c r="BP7" s="10"/>
     </row>
     <row r="8" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
+      <c r="A8" s="4"/>
       <c r="B8" s="13" t="s">
         <v>5</v>
       </c>
@@ -1722,7 +1722,7 @@
       <c r="BP8" s="10"/>
     </row>
     <row r="9" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
+      <c r="A9" s="5"/>
       <c r="B9" s="15" t="s">
         <v>7</v>
       </c>
@@ -1834,7 +1834,7 @@
       <c r="BP9" s="10"/>
     </row>
     <row r="10" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B10" s="11" t="s">
@@ -1948,7 +1948,7 @@
       <c r="BP10" s="10"/>
     </row>
     <row r="11" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
+      <c r="A11" s="4"/>
       <c r="B11" s="13" t="s">
         <v>9</v>
       </c>
@@ -2060,7 +2060,7 @@
       <c r="BP11" s="10"/>
     </row>
     <row r="12" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="13" t="s">
         <v>10</v>
       </c>
@@ -2172,7 +2172,7 @@
       <c r="BP12" s="10"/>
     </row>
     <row r="13" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
+      <c r="A13" s="5"/>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -2248,7 +2248,7 @@
       <c r="BP13" s="10"/>
     </row>
     <row r="14" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B14" s="11" t="s">
@@ -2362,7 +2362,7 @@
       <c r="BP14" s="10"/>
     </row>
     <row r="15" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="13" t="s">
         <v>11</v>
       </c>
@@ -2474,7 +2474,7 @@
       <c r="BP15" s="10"/>
     </row>
     <row r="16" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
@@ -2548,7 +2548,7 @@
       <c r="BP16" s="10"/>
     </row>
     <row r="17" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="13" t="s">
         <v>11</v>
       </c>
@@ -2660,7 +2660,7 @@
       <c r="BP17" s="10"/>
     </row>
     <row r="18" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
+      <c r="A18" s="5"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
@@ -2734,7 +2734,7 @@
       <c r="BP18" s="10"/>
     </row>
     <row r="19" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B19" s="11" t="s">
@@ -2824,7 +2824,7 @@
       <c r="BP19" s="10"/>
     </row>
     <row r="20" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
+      <c r="A20" s="4"/>
       <c r="B20" s="13" t="s">
         <v>13</v>
       </c>
@@ -2924,7 +2924,7 @@
       <c r="BP20" s="10"/>
     </row>
     <row r="21" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
+      <c r="A21" s="5"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>

--- a/Schedule Calculator Pro/bin/Debug/Розклад 3 курс.xlsx
+++ b/Schedule Calculator Pro/bin/Debug/Розклад 3 курс.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\SCP\Schedule Calculator Pro\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DD317A6-CA15-4BEB-A107-AB76AFFEC7A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C76571E-287B-4001-BB76-D7C09B747F90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14475" yWindow="2805" windowWidth="13995" windowHeight="11505" xr2:uid="{2D18CF31-4A37-4765-9212-79018FF50490}"/>
+    <workbookView xWindow="14475" yWindow="2805" windowWidth="13995" windowHeight="11505" xr2:uid="{2E078218-88B7-44C3-94CE-1C3D3C1C0AB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -81,6 +81,12 @@
     <t>с.з.</t>
   </si>
   <si>
+    <t>Охорона праці в галузі</t>
+  </si>
+  <si>
+    <t>Шевчик О.А.</t>
+  </si>
+  <si>
     <t>Ел31</t>
   </si>
   <si>
@@ -93,6 +99,9 @@
     <t>Варганова Д.О.</t>
   </si>
   <si>
+    <t>Основи пром. електроніки, мікропроцесорної т. та а.</t>
+  </si>
+  <si>
     <t>Електричні машини</t>
   </si>
   <si>
@@ -108,9 +117,6 @@
     <t>Опанащук Ю.М.</t>
   </si>
   <si>
-    <t>Основи пром. електроніки, мікропроцесорної т. та а.</t>
-  </si>
-  <si>
     <t>К37</t>
   </si>
   <si>
@@ -120,9 +126,6 @@
     <t>Бенедицький В.Б.</t>
   </si>
   <si>
-    <t>Охорона праці в галузі</t>
-  </si>
-  <si>
     <t>Гуменюк О.М.</t>
   </si>
   <si>
@@ -153,96 +156,96 @@
     <t>Сербин Г.Л.</t>
   </si>
   <si>
+    <t>Основи метрології, стандартизації та взаємин</t>
+  </si>
+  <si>
+    <t>Теорія імовірності та математична статистика</t>
+  </si>
+  <si>
+    <t>Сорочиньска О.В.</t>
+  </si>
+  <si>
+    <t>Алгоритми і методи обчислення</t>
+  </si>
+  <si>
+    <t>Чижмотря О.Г.</t>
+  </si>
+  <si>
+    <t>Лг32</t>
+  </si>
+  <si>
+    <t>Основи охорони праці</t>
+  </si>
+  <si>
+    <t>Дишлева Т.І.</t>
+  </si>
+  <si>
+    <t>Основи конструювання виробів з деревини</t>
+  </si>
+  <si>
+    <t>Ковальчук О.В.</t>
+  </si>
+  <si>
+    <t>Обладнання галузі</t>
+  </si>
+  <si>
+    <t>Буханевич М.Й.</t>
+  </si>
+  <si>
+    <t>Основи електротехніки</t>
+  </si>
+  <si>
+    <t>Григор'єв М.Ю.</t>
+  </si>
+  <si>
+    <t>Соціологія</t>
+  </si>
+  <si>
+    <t>Кушнерчук Н.О.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основи філософських знань </t>
+  </si>
+  <si>
+    <t>Антонова Л.І.</t>
+  </si>
+  <si>
+    <t>Сушіння і захист деревини</t>
+  </si>
+  <si>
+    <t>Шурпан М.М.</t>
+  </si>
+  <si>
+    <t>Халіф О.Р.</t>
+  </si>
+  <si>
+    <t>П33</t>
+  </si>
+  <si>
+    <t>Об'єктно-орієнтоване програмування</t>
+  </si>
+  <si>
+    <t>Левкіський В.Л.</t>
+  </si>
+  <si>
+    <t>Чисельні методи</t>
+  </si>
+  <si>
+    <t>Подлєсна К.А.</t>
+  </si>
+  <si>
+    <t>Дискретна математика</t>
+  </si>
+  <si>
+    <t>WEB-дизайн</t>
+  </si>
+  <si>
     <t>Іноземна мова</t>
   </si>
   <si>
-    <t>Халіф О.Р.</t>
-  </si>
-  <si>
     <t>Шуляр Т.М.</t>
   </si>
   <si>
-    <t>Основи метрології, стандартизації та взаємин</t>
-  </si>
-  <si>
-    <t>Теорія імовірності та математична статистика</t>
-  </si>
-  <si>
-    <t>Сорочиньска О.В.</t>
-  </si>
-  <si>
-    <t>Алгоритми і методи обчислення</t>
-  </si>
-  <si>
-    <t>Чижмотря О.Г.</t>
-  </si>
-  <si>
-    <t>Лг32</t>
-  </si>
-  <si>
-    <t>Основи охорони праці</t>
-  </si>
-  <si>
-    <t>Дишлева Т.І.</t>
-  </si>
-  <si>
-    <t>Основи конструювання виробів з деревини</t>
-  </si>
-  <si>
-    <t>Ковальчук О.В.</t>
-  </si>
-  <si>
-    <t>Обладнання галузі</t>
-  </si>
-  <si>
-    <t>Буханевич М.Й.</t>
-  </si>
-  <si>
-    <t>Основи електротехніки</t>
-  </si>
-  <si>
-    <t>Григор'єв М.Ю.</t>
-  </si>
-  <si>
-    <t>Соціологія</t>
-  </si>
-  <si>
-    <t>Кушнерчук Н.О.</t>
-  </si>
-  <si>
-    <t>Сушіння і захист деревини</t>
-  </si>
-  <si>
-    <t>Шурпан М.М.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Основи філософських знань </t>
-  </si>
-  <si>
-    <t>Антонова Л.І.</t>
-  </si>
-  <si>
-    <t>П33</t>
-  </si>
-  <si>
-    <t>Об'єктно-орієнтоване програмування</t>
-  </si>
-  <si>
-    <t>Левкіський В.Л.</t>
-  </si>
-  <si>
-    <t>Чисельні методи</t>
-  </si>
-  <si>
-    <t>Подлєсна К.А.</t>
-  </si>
-  <si>
-    <t>Дискретна математика</t>
-  </si>
-  <si>
-    <t>WEB-дизайн</t>
-  </si>
-  <si>
     <t xml:space="preserve">Алгоритми та структури даних </t>
   </si>
   <si>
@@ -289,9 +292,6 @@
   </si>
   <si>
     <t xml:space="preserve">Основи соціальної педагогики </t>
-  </si>
-  <si>
-    <t>Шевчик О.А.</t>
   </si>
   <si>
     <t>Х37</t>
@@ -572,7 +572,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -617,6 +617,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -940,7 +943,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB1B1F55-F147-423B-B865-6F1158837733}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D1DC40A-7D28-4FD8-8959-F4C0D7D6F464}">
   <dimension ref="A1:BP50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -966,13 +969,13 @@
     <col min="17" max="17" width="39.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:68" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>96</v>
       </c>
       <c r="B1" s="1"/>
@@ -1005,27 +1008,27 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
       <c r="N2" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
       <c r="Q2" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R2" s="8"/>
       <c r="S2" s="8"/>
@@ -1092,10 +1095,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="11">
-        <v>106</v>
+        <v>403</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>4</v>
@@ -1104,49 +1107,49 @@
         <v>117</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J3" s="11">
-        <v>411</v>
+        <v>209</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M3" s="11">
         <v>412</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P3" s="11">
-        <v>413</v>
+        <v>321</v>
       </c>
       <c r="Q3" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R3" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S3" s="11">
         <v>301</v>
       </c>
       <c r="T3" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="U3" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V3" s="12">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="W3" s="10"/>
       <c r="X3" s="10"/>
@@ -1207,46 +1210,46 @@
         <v>117</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G4" s="13">
-        <v>317</v>
+        <v>215</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J4" s="13">
-        <v>302</v>
+        <v>217</v>
       </c>
       <c r="K4" s="13" t="s">
         <v>13</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M4" s="13" t="s">
         <v>15</v>
       </c>
       <c r="N4" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="O4" s="13" t="s">
         <v>64</v>
-      </c>
-      <c r="O4" s="13" t="s">
-        <v>65</v>
       </c>
       <c r="P4" s="13">
         <v>413</v>
       </c>
       <c r="Q4" s="13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R4" s="13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S4" s="13">
         <v>301</v>
@@ -1319,46 +1322,46 @@
         <v>117</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="G5" s="13">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H5" s="13" t="s">
         <v>13</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J5" s="13" t="s">
         <v>15</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M5" s="13">
         <v>412</v>
       </c>
       <c r="N5" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O5" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P5" s="13">
-        <v>413</v>
+        <v>151</v>
       </c>
       <c r="Q5" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R5" s="13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S5" s="13">
         <v>301</v>
@@ -1440,10 +1443,10 @@
       <c r="R6" s="15"/>
       <c r="S6" s="15"/>
       <c r="T6" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="U6" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="V6" s="16">
         <v>410</v>
@@ -1509,46 +1512,46 @@
         <v>117</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G7" s="11">
-        <v>153</v>
+        <v>410</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>13</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>15</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M7" s="11">
         <v>412</v>
       </c>
       <c r="N7" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="O7" s="11" t="s">
         <v>66</v>
-      </c>
-      <c r="O7" s="11" t="s">
-        <v>67</v>
       </c>
       <c r="P7" s="11">
         <v>413</v>
       </c>
       <c r="Q7" s="11" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="S7" s="11">
         <v>301</v>
@@ -1560,7 +1563,7 @@
         <v>89</v>
       </c>
       <c r="V7" s="12">
-        <v>410</v>
+        <v>215</v>
       </c>
       <c r="W7" s="10"/>
       <c r="X7" s="10"/>
@@ -1618,58 +1621,58 @@
         <v>6</v>
       </c>
       <c r="D8" s="13">
-        <v>321</v>
+        <v>104</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="G8" s="13">
-        <v>213</v>
+        <v>106</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J8" s="13">
-        <v>302</v>
+        <v>215</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M8" s="13">
         <v>412</v>
       </c>
       <c r="N8" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O8" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P8" s="13">
         <v>413</v>
       </c>
       <c r="Q8" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="R8" s="13" t="s">
         <v>79</v>
-      </c>
-      <c r="R8" s="13" t="s">
-        <v>80</v>
       </c>
       <c r="S8" s="13">
         <v>301</v>
       </c>
       <c r="T8" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="U8" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="V8" s="14">
         <v>410</v>
@@ -1730,49 +1733,49 @@
         <v>8</v>
       </c>
       <c r="D9" s="15">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="G9" s="15">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="H9" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="15" t="s">
-        <v>33</v>
-      </c>
       <c r="J9" s="15">
-        <v>206</v>
+        <v>405</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M9" s="15">
         <v>412</v>
       </c>
       <c r="N9" s="15" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="O9" s="15" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="P9" s="15">
-        <v>104</v>
+        <v>413</v>
       </c>
       <c r="Q9" s="15" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="R9" s="15" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="S9" s="15">
         <v>301</v>
@@ -1847,46 +1850,46 @@
         <v>311</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G10" s="11">
-        <v>403</v>
+        <v>153</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J10" s="11">
-        <v>206</v>
+        <v>151</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M10" s="11">
         <v>412</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="O10" s="11" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="P10" s="11">
-        <v>413</v>
+        <v>104</v>
       </c>
       <c r="Q10" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="S10" s="11">
         <v>301</v>
@@ -1956,37 +1959,37 @@
         <v>8</v>
       </c>
       <c r="D11" s="13">
-        <v>213</v>
+        <v>410</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="G11" s="13">
-        <v>117</v>
+        <v>303</v>
       </c>
       <c r="H11" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="13" t="s">
-        <v>36</v>
-      </c>
       <c r="J11" s="13">
-        <v>108</v>
+        <v>154</v>
       </c>
       <c r="K11" s="13" t="s">
         <v>13</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M11" s="13" t="s">
         <v>15</v>
       </c>
       <c r="N11" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O11" s="13" t="s">
         <v>12</v>
@@ -1995,13 +1998,13 @@
         <v>413</v>
       </c>
       <c r="Q11" s="13" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="R11" s="13" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="S11" s="13">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="T11" s="13" t="s">
         <v>92</v>
@@ -2010,7 +2013,7 @@
         <v>89</v>
       </c>
       <c r="V11" s="14">
-        <v>410</v>
+        <v>215</v>
       </c>
       <c r="W11" s="10"/>
       <c r="X11" s="10"/>
@@ -2068,52 +2071,52 @@
         <v>8</v>
       </c>
       <c r="D12" s="13">
-        <v>122</v>
+        <v>413</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>15</v>
+        <v>4</v>
+      </c>
+      <c r="G12" s="13">
+        <v>117</v>
       </c>
       <c r="H12" s="13" t="s">
         <v>38</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J12" s="13">
-        <v>405</v>
+        <v>301</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L12" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M12" s="13">
         <v>412</v>
       </c>
       <c r="N12" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O12" s="13" t="s">
         <v>12</v>
       </c>
       <c r="P12" s="13">
-        <v>413</v>
+        <v>151</v>
       </c>
       <c r="Q12" s="13" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="R12" s="13" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="S12" s="13">
-        <v>301</v>
+        <v>208</v>
       </c>
       <c r="T12" s="13" t="s">
         <v>92</v>
@@ -2122,7 +2125,7 @@
         <v>89</v>
       </c>
       <c r="V12" s="14">
-        <v>302</v>
+        <v>410</v>
       </c>
       <c r="W12" s="10"/>
       <c r="X12" s="10"/>
@@ -2195,7 +2198,7 @@
         <v>13</v>
       </c>
       <c r="U13" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V13" s="16" t="s">
         <v>15</v>
@@ -2258,49 +2261,49 @@
         <v>8</v>
       </c>
       <c r="D14" s="11">
-        <v>216</v>
+        <v>319</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>15</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J14" s="11">
-        <v>202</v>
+        <v>104</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M14" s="11">
         <v>412</v>
       </c>
       <c r="N14" s="11" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="O14" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="P14" s="11">
-        <v>413</v>
+        <v>32</v>
+      </c>
+      <c r="P14" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="Q14" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S14" s="11">
         <v>301</v>
@@ -2370,49 +2373,49 @@
         <v>12</v>
       </c>
       <c r="D15" s="13">
-        <v>216</v>
+        <v>104</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F15" s="13" t="s">
         <v>8</v>
       </c>
       <c r="G15" s="13">
-        <v>314</v>
+        <v>411</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J15" s="13">
-        <v>305</v>
-      </c>
-      <c r="K15" s="17" t="s">
-        <v>5</v>
+        <v>123</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="L15" s="13" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="M15" s="13">
-        <v>214</v>
+        <v>412</v>
       </c>
       <c r="N15" s="13" t="s">
         <v>13</v>
       </c>
       <c r="O15" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P15" s="13" t="s">
         <v>15</v>
       </c>
       <c r="Q15" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="R15" s="13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S15" s="13">
         <v>301</v>
@@ -2473,33 +2476,71 @@
       <c r="BO15" s="10"/>
       <c r="BP15" s="10"/>
     </row>
-    <row r="16" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="13" t="s">
+    <row r="16" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="M16" s="13">
-        <v>210</v>
-      </c>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="14"/>
+      <c r="I16" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" s="15">
+        <v>412</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="L16" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="M16" s="15">
+        <v>219</v>
+      </c>
+      <c r="N16" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="O16" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="P16" s="15">
+        <v>413</v>
+      </c>
+      <c r="Q16" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="R16" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="S16" s="15">
+        <v>301</v>
+      </c>
+      <c r="T16" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="U16" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="V16" s="16" t="s">
+        <v>15</v>
+      </c>
       <c r="W16" s="10"/>
       <c r="X16" s="10"/>
       <c r="Y16" s="10"/>
@@ -2548,68 +2589,58 @@
       <c r="BP16" s="10"/>
     </row>
     <row r="17" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="13">
-        <v>104</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="13">
-        <v>210</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="J17" s="13">
-        <v>322</v>
-      </c>
-      <c r="K17" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="L17" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="M17" s="13">
-        <v>412</v>
-      </c>
-      <c r="N17" s="13" t="s">
+      <c r="A17" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O17" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="P17" s="13" t="s">
+      <c r="C17" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q17" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="R17" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="S17" s="13">
-        <v>301</v>
-      </c>
-      <c r="T17" s="13" t="s">
+      <c r="E17" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="11">
+        <v>219</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" s="11">
+        <v>311</v>
+      </c>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="O17" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="P17" s="11">
+        <v>416</v>
+      </c>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="U17" s="13" t="s">
+      <c r="U17" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="V17" s="14">
+      <c r="V17" s="12">
         <v>410</v>
       </c>
       <c r="W17" s="10"/>
@@ -2659,33 +2690,33 @@
       <c r="BO17" s="10"/>
       <c r="BP17" s="10"/>
     </row>
-    <row r="18" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="J18" s="15">
-        <v>311</v>
-      </c>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="16"/>
+    <row r="18" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="P18" s="13">
+        <v>413</v>
+      </c>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="14"/>
       <c r="W18" s="10"/>
       <c r="X18" s="10"/>
       <c r="Y18" s="10"/>
@@ -2734,47 +2765,45 @@
       <c r="BP18" s="10"/>
     </row>
     <row r="19" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="J19" s="11">
-        <v>214</v>
-      </c>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="U19" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="V19" s="12" t="s">
-        <v>15</v>
+      <c r="A19" s="4"/>
+      <c r="B19" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="13">
+        <v>104</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J19" s="13">
+        <v>123</v>
+      </c>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="U19" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="V19" s="14">
+        <v>410</v>
       </c>
       <c r="W19" s="10"/>
       <c r="X19" s="10"/>
@@ -2826,56 +2855,44 @@
     <row r="20" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="13" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="13">
+        <v>154</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="L20" s="13" t="s">
         <v>6</v>
-      </c>
-      <c r="G20" s="13">
-        <v>211</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="J20" s="13">
-        <v>117</v>
-      </c>
-      <c r="K20" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="L20" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="M20" s="13">
         <v>412</v>
       </c>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
+      <c r="N20" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="O20" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="P20" s="13">
+        <v>413</v>
+      </c>
       <c r="Q20" s="13"/>
       <c r="R20" s="13"/>
       <c r="S20" s="13"/>
-      <c r="T20" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="U20" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="V20" s="14">
-        <v>410</v>
-      </c>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="14"/>
       <c r="W20" s="10"/>
       <c r="X20" s="10"/>
       <c r="Y20" s="10"/>
@@ -2931,39 +2948,25 @@
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
-      <c r="H21" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="J21" s="15">
-        <v>411</v>
-      </c>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15" t="s">
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="O21" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="P21" s="15">
-        <v>413</v>
-      </c>
+      <c r="M21" s="15">
+        <v>215</v>
+      </c>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
       <c r="Q21" s="15"/>
       <c r="R21" s="15"/>
       <c r="S21" s="15"/>
-      <c r="T21" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="U21" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="V21" s="16">
-        <v>410</v>
-      </c>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="16"/>
       <c r="W21" s="10"/>
       <c r="X21" s="10"/>
       <c r="Y21" s="10"/>
@@ -5020,21 +5023,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A21"/>
     <mergeCell ref="Q2:S2"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A13"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:J2"/>
-    <mergeCell ref="H17:H18"/>
     <mergeCell ref="K2:M2"/>
-    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="N17:N18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Schedule Calculator Pro/bin/Debug/Розклад 3 курс.xlsx
+++ b/Schedule Calculator Pro/bin/Debug/Розклад 3 курс.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\SCP\Schedule Calculator Pro\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C76571E-287B-4001-BB76-D7C09B747F90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AA77C19-41E6-49D0-BD35-B9FA7ED9328A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14475" yWindow="2805" windowWidth="13995" windowHeight="11505" xr2:uid="{2E078218-88B7-44C3-94CE-1C3D3C1C0AB1}"/>
+    <workbookView xWindow="14805" yWindow="1095" windowWidth="13995" windowHeight="11505" xr2:uid="{B278B1AA-7A69-44F9-AAA1-28B058DC648A}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="102">
   <si>
     <t>А30</t>
   </si>
@@ -165,6 +159,15 @@
     <t>Сорочиньска О.В.</t>
   </si>
   <si>
+    <t>Іноземна мова</t>
+  </si>
+  <si>
+    <t>Халіф О.Р.</t>
+  </si>
+  <si>
+    <t>Шуляр Т.М.</t>
+  </si>
+  <si>
     <t>Алгоритми і методи обчислення</t>
   </si>
   <si>
@@ -204,21 +207,18 @@
     <t>Кушнерчук Н.О.</t>
   </si>
   <si>
+    <t>Сушіння і захист деревини</t>
+  </si>
+  <si>
+    <t>Шурпан М.М.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Основи філософських знань </t>
   </si>
   <si>
     <t>Антонова Л.І.</t>
   </si>
   <si>
-    <t>Сушіння і захист деревини</t>
-  </si>
-  <si>
-    <t>Шурпан М.М.</t>
-  </si>
-  <si>
-    <t>Халіф О.Р.</t>
-  </si>
-  <si>
     <t>П33</t>
   </si>
   <si>
@@ -238,12 +238,6 @@
   </si>
   <si>
     <t>WEB-дизайн</t>
-  </si>
-  <si>
-    <t>Іноземна мова</t>
-  </si>
-  <si>
-    <t>Шуляр Т.М.</t>
   </si>
   <si>
     <t xml:space="preserve">Алгоритми та структури даних </t>
@@ -572,7 +566,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -618,13 +612,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -943,7 +931,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D1DC40A-7D28-4FD8-8959-F4C0D7D6F464}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9529C64-8917-46E3-9124-BED10575E2E6}">
   <dimension ref="A1:BP50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -975,7 +963,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:68" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>96</v>
       </c>
       <c r="B1" s="1"/>
@@ -1018,12 +1006,12 @@
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
       <c r="N2" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
@@ -1095,7 +1083,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="11">
-        <v>403</v>
+        <v>206</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>19</v>
@@ -1113,13 +1101,13 @@
         <v>30</v>
       </c>
       <c r="J3" s="11">
-        <v>209</v>
+        <v>411</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M3" s="11">
         <v>412</v>
@@ -1131,7 +1119,7 @@
         <v>31</v>
       </c>
       <c r="P3" s="11">
-        <v>321</v>
+        <v>413</v>
       </c>
       <c r="Q3" s="11" t="s">
         <v>73</v>
@@ -1143,13 +1131,13 @@
         <v>301</v>
       </c>
       <c r="T3" s="11" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U3" s="11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="V3" s="12">
-        <v>404</v>
+        <v>151</v>
       </c>
       <c r="W3" s="10"/>
       <c r="X3" s="10"/>
@@ -1216,7 +1204,7 @@
         <v>21</v>
       </c>
       <c r="G4" s="13">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="H4" s="13" t="s">
         <v>16</v>
@@ -1225,7 +1213,7 @@
         <v>31</v>
       </c>
       <c r="J4" s="13">
-        <v>217</v>
+        <v>303</v>
       </c>
       <c r="K4" s="13" t="s">
         <v>13</v>
@@ -1237,10 +1225,10 @@
         <v>15</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O4" s="13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P4" s="13">
         <v>413</v>
@@ -1328,7 +1316,7 @@
         <v>8</v>
       </c>
       <c r="G5" s="13">
-        <v>200</v>
+        <v>310</v>
       </c>
       <c r="H5" s="13" t="s">
         <v>13</v>
@@ -1340,10 +1328,10 @@
         <v>15</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M5" s="13">
         <v>412</v>
@@ -1355,7 +1343,7 @@
         <v>34</v>
       </c>
       <c r="P5" s="13">
-        <v>151</v>
+        <v>413</v>
       </c>
       <c r="Q5" s="13" t="s">
         <v>77</v>
@@ -1443,10 +1431,10 @@
       <c r="R6" s="15"/>
       <c r="S6" s="15"/>
       <c r="T6" s="15" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="U6" s="15" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="V6" s="16">
         <v>410</v>
@@ -1518,7 +1506,7 @@
         <v>24</v>
       </c>
       <c r="G7" s="11">
-        <v>410</v>
+        <v>106</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>13</v>
@@ -1530,28 +1518,28 @@
         <v>15</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M7" s="11">
         <v>412</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P7" s="11">
         <v>413</v>
       </c>
       <c r="Q7" s="11" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="S7" s="11">
         <v>301</v>
@@ -1563,7 +1551,7 @@
         <v>89</v>
       </c>
       <c r="V7" s="12">
-        <v>215</v>
+        <v>410</v>
       </c>
       <c r="W7" s="10"/>
       <c r="X7" s="10"/>
@@ -1621,7 +1609,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="13">
-        <v>104</v>
+        <v>217</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>23</v>
@@ -1630,7 +1618,7 @@
         <v>24</v>
       </c>
       <c r="G8" s="13">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>33</v>
@@ -1639,22 +1627,22 @@
         <v>34</v>
       </c>
       <c r="J8" s="13">
-        <v>215</v>
+        <v>404</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M8" s="13">
         <v>412</v>
       </c>
       <c r="N8" s="13" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O8" s="13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P8" s="13">
         <v>413</v>
@@ -1669,10 +1657,10 @@
         <v>301</v>
       </c>
       <c r="T8" s="13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="U8" s="13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="V8" s="14">
         <v>410</v>
@@ -1733,7 +1721,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="15">
-        <v>311</v>
+        <v>215</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>1</v>
@@ -1742,7 +1730,7 @@
         <v>2</v>
       </c>
       <c r="G9" s="15">
-        <v>216</v>
+        <v>416</v>
       </c>
       <c r="H9" s="15" t="s">
         <v>35</v>
@@ -1751,13 +1739,13 @@
         <v>34</v>
       </c>
       <c r="J9" s="15">
-        <v>405</v>
+        <v>206</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M9" s="15">
         <v>412</v>
@@ -1766,7 +1754,7 @@
         <v>42</v>
       </c>
       <c r="O9" s="15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P9" s="15">
         <v>413</v>
@@ -1856,7 +1844,7 @@
         <v>26</v>
       </c>
       <c r="G10" s="11">
-        <v>153</v>
+        <v>218</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>36</v>
@@ -1865,13 +1853,13 @@
         <v>37</v>
       </c>
       <c r="J10" s="11">
-        <v>151</v>
+        <v>214</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M10" s="11">
         <v>412</v>
@@ -1889,7 +1877,7 @@
         <v>82</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="S10" s="11">
         <v>301</v>
@@ -1959,7 +1947,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="13">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>25</v>
@@ -1968,7 +1956,7 @@
         <v>26</v>
       </c>
       <c r="G11" s="13">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="H11" s="13" t="s">
         <v>38</v>
@@ -1977,7 +1965,7 @@
         <v>37</v>
       </c>
       <c r="J11" s="13">
-        <v>154</v>
+        <v>213</v>
       </c>
       <c r="K11" s="13" t="s">
         <v>13</v>
@@ -1989,7 +1977,7 @@
         <v>15</v>
       </c>
       <c r="N11" s="13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O11" s="13" t="s">
         <v>12</v>
@@ -1998,10 +1986,10 @@
         <v>413</v>
       </c>
       <c r="Q11" s="13" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="R11" s="13" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="S11" s="13">
         <v>301</v>
@@ -2013,7 +2001,7 @@
         <v>89</v>
       </c>
       <c r="V11" s="14">
-        <v>215</v>
+        <v>410</v>
       </c>
       <c r="W11" s="10"/>
       <c r="X11" s="10"/>
@@ -2071,7 +2059,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="13">
-        <v>413</v>
+        <v>109</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>19</v>
@@ -2089,34 +2077,34 @@
         <v>37</v>
       </c>
       <c r="J12" s="13">
-        <v>301</v>
+        <v>105</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L12" s="13" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M12" s="13">
         <v>412</v>
       </c>
       <c r="N12" s="13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O12" s="13" t="s">
         <v>12</v>
       </c>
       <c r="P12" s="13">
-        <v>151</v>
+        <v>413</v>
       </c>
       <c r="Q12" s="13" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="R12" s="13" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="S12" s="13">
-        <v>208</v>
+        <v>301</v>
       </c>
       <c r="T12" s="13" t="s">
         <v>92</v>
@@ -2261,7 +2249,7 @@
         <v>8</v>
       </c>
       <c r="D14" s="11">
-        <v>319</v>
+        <v>104</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>13</v>
@@ -2279,13 +2267,13 @@
         <v>40</v>
       </c>
       <c r="J14" s="11">
-        <v>104</v>
+        <v>413</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M14" s="11">
         <v>412</v>
@@ -2382,7 +2370,7 @@
         <v>8</v>
       </c>
       <c r="G15" s="13">
-        <v>411</v>
+        <v>311</v>
       </c>
       <c r="H15" s="13" t="s">
         <v>39</v>
@@ -2391,13 +2379,13 @@
         <v>40</v>
       </c>
       <c r="J15" s="13">
-        <v>123</v>
+        <v>203</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L15" s="13" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M15" s="13">
         <v>412</v>
@@ -2479,13 +2467,13 @@
     <row r="16" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="D16" s="15">
+        <v>104</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>13</v>
@@ -2503,31 +2491,31 @@
         <v>8</v>
       </c>
       <c r="J16" s="15">
+        <v>218</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="L16" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="M16" s="15">
         <v>412</v>
       </c>
-      <c r="K16" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="L16" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="M16" s="15">
-        <v>219</v>
-      </c>
       <c r="N16" s="15" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="O16" s="15" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="P16" s="15">
         <v>413</v>
       </c>
       <c r="Q16" s="15" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="R16" s="15" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="S16" s="15">
         <v>301</v>
@@ -2602,13 +2590,13 @@
         <v>15</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="G17" s="11">
-        <v>219</v>
+        <v>322</v>
       </c>
       <c r="H17" s="11" t="s">
         <v>42</v>
@@ -2617,20 +2605,14 @@
         <v>43</v>
       </c>
       <c r="J17" s="11">
-        <v>311</v>
+        <v>154</v>
       </c>
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
-      <c r="N17" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="O17" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="P17" s="11">
-        <v>416</v>
-      </c>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
       <c r="S17" s="11"/>
@@ -2692,21 +2674,41 @@
     </row>
     <row r="18" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
+      <c r="B18" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="13">
+        <v>409</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J18" s="13">
+        <v>416</v>
+      </c>
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
       <c r="M18" s="13"/>
-      <c r="N18" s="18"/>
+      <c r="N18" s="13" t="s">
+        <v>62</v>
+      </c>
       <c r="O18" s="13" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="P18" s="13">
         <v>413</v>
@@ -2714,9 +2716,15 @@
       <c r="Q18" s="13"/>
       <c r="R18" s="13"/>
       <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="14"/>
+      <c r="T18" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="U18" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="V18" s="14">
+        <v>410</v>
+      </c>
       <c r="W18" s="10"/>
       <c r="X18" s="10"/>
       <c r="Y18" s="10"/>
@@ -2766,26 +2774,18 @@
     </row>
     <row r="19" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
-      <c r="B19" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="13">
-        <v>104</v>
-      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
-      <c r="H19" s="13" t="s">
-        <v>44</v>
-      </c>
+      <c r="H19" s="17"/>
       <c r="I19" s="13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J19" s="13">
-        <v>123</v>
+        <v>202</v>
       </c>
       <c r="K19" s="13"/>
       <c r="L19" s="13"/>
@@ -2796,15 +2796,9 @@
       <c r="Q19" s="13"/>
       <c r="R19" s="13"/>
       <c r="S19" s="13"/>
-      <c r="T19" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="U19" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="V19" s="14">
-        <v>410</v>
-      </c>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="14"/>
       <c r="W19" s="10"/>
       <c r="X19" s="10"/>
       <c r="Y19" s="10"/>
@@ -2852,47 +2846,41 @@
       <c r="BO19" s="10"/>
       <c r="BP19" s="10"/>
     </row>
-    <row r="20" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="13" t="s">
+    <row r="20" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5"/>
+      <c r="B20" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="13">
-        <v>154</v>
-      </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="L20" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="M20" s="13">
-        <v>412</v>
-      </c>
-      <c r="N20" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="O20" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="P20" s="13">
-        <v>413</v>
-      </c>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="14"/>
+      <c r="D20" s="15">
+        <v>203</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="J20" s="15">
+        <v>206</v>
+      </c>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="16"/>
       <c r="W20" s="10"/>
       <c r="X20" s="10"/>
       <c r="Y20" s="10"/>
@@ -2940,33 +2928,29 @@
       <c r="BO20" s="10"/>
       <c r="BP20" s="10"/>
     </row>
-    <row r="21" spans="1:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="M21" s="15">
-        <v>215</v>
-      </c>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="15"/>
-      <c r="V21" s="16"/>
+    <row r="21" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
       <c r="W21" s="10"/>
       <c r="X21" s="10"/>
       <c r="Y21" s="10"/>
@@ -5022,9 +5006,9 @@
       <c r="BP50" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="14">
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A17:A20"/>
     <mergeCell ref="Q2:S2"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="A1:V1"/>
@@ -5034,10 +5018,9 @@
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:J2"/>
+    <mergeCell ref="H18:H19"/>
     <mergeCell ref="K2:M2"/>
-    <mergeCell ref="K20:K21"/>
     <mergeCell ref="N2:P2"/>
-    <mergeCell ref="N17:N18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
